--- a/500all/speech_level/speeches_CHRG-114hhrg23642.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23642.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
   <si>
     <t>committee_name</t>
   </si>
@@ -52,9 +52,6 @@
     <t>412526</t>
   </si>
   <si>
-    <t>Ron DeSantis</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. DeSantis. The Subcommittee on National Security will come to order. Without objection, the chair is authorized to declare a recess at any time.    Veteran suicides continue to be a national epidemic. Veterans are estimated to have a suicide rate that is 50 percent higher than those who did not serve in the military. A major driver of suicide rates is the incident of posttraumatic stress among our veterans. According to the Department of Veterans Affairs, between 11 and 20 percent of those who served in Operation Iraqi Freedom and/or Enduring Freedom suffer from PTS. Other estimates range as high as 29 percent.    Veterans with PTS may be troubled by intrusive thoughts; avoid people, places, and things; and experience hyperawareness and nightmares. They may find they are no longer able to trust and love those closest to them. Some may even feel that life is no longer worth living.    Unfortunately, many veterans have met significant problems in receiving the health care they deserve. The issues regarding the inadequate treatment of veterans by the VA have been widely reported. These include long wait times and the overprescription of dangerous opiates. Identifying and utilizing the full range of effective treatments for veterans suffering from posttraumatic stress is something that the VA must do without delay.    One treatment that complements existing therapies is the connection of veterans with PTS with service dogs. These are not comfort dogs or therapy dogs, as useful as those might be. Service dogs perform valuable services for veterans, calming them during a panic attack, turning on lights in a dark home, waking them from nightmares.    Currently, the VA only provides service dogs to veterans with physical impairments. However, a 2010 VA inspector general report stated that the VA ``faces challenges implementing the guide and service dog program. The VA only started assisting mobility and hearing-impaired veterans with service dogs in 2008, 6 years after being authorized to do so. The VA personnel told us the actual demand for service dogs is unknown.'' With tens of thousands of veterans returning with mobility and hearing impairment from wars due to the use of improvised explosive devices and other things, this 6-year delay represents a stunning bureaucratic failure.    The VA contends that there is insufficient evidence that service dogs help those with PTS. However, ample scientific findings and ongoing research suggest that the VA may very well be wrong. Service dogs are not intended to, nor do they cure PTS, but they provide a safe, non-addictive tool for veterans to live normal, functioning, productive lives and they could provide a safe complement to existing treatments for PTS. The urgency of the veteran suicide rate demands that we explore this option.    In the 2010 National Defense Authorization Act, Congress authorized the VA to conduct a 3-year study on the efficacy of pairing veterans with PTS with service dogs. Instead of being completed in 2013, the VA study is not expected to be completed until 2019. According to the VA, the study has undergone ``multiple significant and unexpected challenges.'' The first phase of the study, referred to as phase 1, began in 2011 and had to be suspended and restarted twice, once after two dogs bit children and again after dog health issues arose.    The VA attributed these problems to issues with vendors contracted to provide the service dogs. Many of the dogs provided by the vendor were of substandard quality and had hip dysplasia, a condition that could have been treated earlier if the vendor performed standard screening procedures. Of the 26 veterans that were enrolled in phase 1, only 12 completed the study and four more are expected to complete the study in February of 2017.    The issues with phase 1 could have been avoided if the VA had properly screened the vendors and had reached out to other public and private sector organizations engaged in similar ventures, organizations like K9s for Warriors, with is based in the district I represent, do not experience these issues because of their experience in sourcing and training the dogs.    Instead of conducting outreach, the VA insisted on developing its own veterinary standards for the study, but the Department of Defense already has its own military working dog standards. In fact, DOD is an internationally regarded trainer of dogs and has a team of over 55 personnel, including 14 veterinarians. Had the VA initially adopted DOD standards, the VA could have avoided the $10-$12 million failure of phase 1.    While the VA eventually did reach out and adopt some DOD standards, it appears that development of its own standards was largely duplicative and wasteful. The VA began phase 2 of the study in December of 2014 with numerous changes based on lessons learned from phase 1. These changes included the VA hiring its own dog trainers to provide support to veterans throughout the study, incorporating DOD veterinary standards, and moving the study from one site in Tampa, Florida, to three separate sites in Atlanta, Georgia; Portland, Oregon; and Iowa City, Iowa.    Yet the VA is only meeting half of its monthly recruiting goal of 12 veterans for this study, similar issues echoed in the 2010 VA IG report. This problem is not based on a shortage of interested veterans but instead on the VA's problems filling dog trainer positions and the alleged complexity of the study. With the VA struggling to pair veterans with service dogs, other organizations are attempting to fill the void. In fact, the committee has spoken with various organizations that cumulatively claim to have hundreds of dogs that are trained and ready to be paired.    Contrary to the VA's assertion that ``there is not enough research yet to know if dogs actually help treat posttraumatic stress and its symptoms,'' there is ample anecdotal and scientific evidence that service dogs can help veterans with     Today, we will hear from witnesses familiar with that evidence and from veteran Cole Lyle, who credits his service dog with markedly reducing his PTS symptoms.    Veterans cannot wait until 2018 for the VA to introduce the low-cost, low-risk, and high-reward treatment option. The problem of veteran suicide is too urgent. For this reason, I have introduced the Puppies Assisting Wounded Servicemembers Act of 2016, cosponsored by many of my fellow committee members, including members on both sides of the aisle.    This legislation would create a program for veterans with the most severe levels of PTS who tried a VA-approved treatment and remain very symptomatic to then be referred to an accredited service dog organization. The VA would reimburse the organization supplying those service dogs, and all funds expended would be offset with funds from the VA Office of Human Resources and administration expenses for administrative offices, conference planning, historic preservation, office artwork, and facility interior decor.    Those who risk their lives for this country deserve the absolute best care upon their return, and time is of the essence.    I would like to thank our witnesses for their testimony today. We have veterans testifying and many joining us in the audience, and I want to thank them very much for their service.</t>
   </si>
   <si>
@@ -64,9 +61,6 @@
     <t>400249</t>
   </si>
   <si>
-    <t>Stephen F. Lynch</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. I would like to thank you for holding this hearing to examine the efforts undertaken by the Department of Veterans Affairs to provide service dogs to veterans of the U.S. armed forces to assist with treatment for posttraumatic stress.    I would also like to thank today's panel of witnesses for helping the committee with its work and again thank all our veterans in attendance and active military.    It is the mission of the Department of the VA to serve and honor the more than 21 million dedicated men and women who are America's veterans in fulfillment of President Lincoln's historic commitment to ``care for those who shall have borne the battle and for their widows and orphans.''    With the formal end of the U.S.-led combat mission in Iraq in 2010 and in Afghanistan in 2014, the return of over 2.7 million veterans from extended service in support of Operation Iraqi Freedom, Operation Enduring Freedom, and other war zone deployments, the fundamental duty of the VA to provide dignified care to America's veterans and their families remains as critical as ever. In turn, our continued and bipartisan oversight of the VA is essential to ensuring that the agency is able to carry out its important mission.    As most recently evidenced by the generation of post-9/11 veterans returning from the wars in Iraq and Afghanistan, effective treatment for posttraumatic stress, also known as PTSD, is one urgent area of veterans' health care that the VA and Congress must continue to strengthen. According to the VA's National Center for Posttraumatic Stress, 20 percent of our veterans who served in Operation Iraqi Freedom or Operation Enduring Freedom have PTS in a given year.    The prevalence of posttraumatic stress among our Iraqi and Afghan veterans is primarily the result of multiple tours of duty and repeated, severe, and constant combat exposure. Moreover, the VA has reported that veterans with PTS are particularly vulnerable to the risk of suicide, which continues to affect veterans at a devastating rate. Last month, the VA under secretary for health David Shulkin, again estimated that every day approximately 22 veterans take their lives in this country, and that is tragic.    Similarly, the Department of Defense reported last week that suicide rates for active duty service members remain high for the 7th year in a row with 265 active duty service members lost to suicide in 2015. We are clearly failing to meet our obligations to our returning and active service members.    The impact of posttraumatic stress in our veterans' community is a complex and far-reaching issue that demands a comprehensive approach to treatment and rehabilitation. This includes robust funding for the VA to continue to expand its mental health services. And I was proud to join the chairman to support the bipartisan omnibus funding bill passed by Congress and signed by President Obama at the end of last year that would provide $50 billion for VA medical services and specifically targets mental health care and suicide prevention.    We must also encourage the development of commonsense alternative solutions that could further assist veterans with PTS rehabilitation. One alternative is the topic of today's hearing, providing service dogs to veterans with PTS to help alleviate their related symptoms.    As noted in the American Medical Association Journal of Ethics in June of 2015, ``Initial academic studies have revealed that veterans paired with service dogs report less severe PTS symptoms, stronger social relationships, decreased substance abuse, and other increased health benefits.''    Pursuant to the Defense Authorization Act for fiscal year 2010, Congress itself mandated the VA to conduct a 3-year study, as noted by the chairman in his remarks. That study was to examine the benefits of using service dogs for the treatment of rehabilitation of veterans with physical or mental injuries, including PTS.    Regrettably, as the chairman has noted, the VA encountered numerous challenges in getting this study off the ground, including inadequate oversight over its service dog vendors and inconsistent service dog training standards. As a result, again, as the chairman has noted, the agency now expects to complete the study in November of 2018 or into 2019.    I understand the VA is taking steps to address these problems. However, a delay for a study of this importance for this amount of time is simply unacceptable. And I look forward to examining the progress of this further study with our witnesses.    And I also think that the chairman's idea of going forward with a pilot program, which can be based on the evidence in hand today, is a great way to go at this problem.    So I am proud to cosponsor two pieces of bipartisan legislation that have been introduced in Congress to facilitate the use of service dogs to assist our veterans.    Chairman DeSantis, my colleague on this committee, has introduced H.R. 4764, a bill to require the VA to commence the service dog pilot program right away that is specific to post-9/11 veterans with severe PTS. And I am proud to join him on that.    Also, Representative Jim McGovern of Massachusetts has also reintroduced legislation to establish a grant program to assist nonprofit organizations in developing and establishing service dog programs for veterans. And, Mr. Chairman, I would ask unanimous consent if I could please submit Mr. McGovern's legislation for the record.</t>
   </si>
   <si>
@@ -88,36 +82,24 @@
     <t>N/A</t>
   </si>
   <si>
-    <t>Fallon</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Fallon. Thank you. Good afternoon, Chairman DeSantis, Ranking Member Lynch, and members of the subcommittee. Thank you for the opportunity to update the committee on progress in the VA PTSD service dog study, which pairs veterans with PTS with service dogs. I am accompanied today to my right by Dr. Patricia Dorn, director of the Rehabilitation Research and Development Service; and Dr. Chris Crowe, senior mental health consultant and liaison to the DOD Defense Centers of Excellence for Psychological Health and TBI.    The 2010 National Defense Authorization Act directed VA to undertake a study to assess the benefits, feasibility, and advisability of using service dogs for the treatment or rehabilitation of veterans with physical or mental injuries or disabilities, including PTSD. The benefits of utilizing service dogs and guide dogs for physical disabilities are well established. Therefore, VA designed the study to focus on veterans with PTSD because PTSD is a high-priority health issue in veterans, and the benefits of service dogs in assisting people with PTSD are not established in the scientific literature.    This is a groundbreaking study that aims to determine if veterans with PTSD would benefit from a service dog. For the study, VA hired its own dog trainers to provide obedience and handling support to veterans after they receive a dog, thus reducing experimental bias in the study.    VA also developed its own contract health, behavior, and training standards for dogs. Three studies cites--Atlanta, Iowa City, and Portland, Oregon--are operating and enrolling veterans from different parts of the country. Approximately once a quarter for 21 months, measures are taken of self-care, interpersonal interactions, and social participation, the severity of PTSD symptoms, sleep-related problems, suicidal ideation, the severity of mood disorders and substance abuse, anger directed at others, inpatient and outpatient visits, medication usage, and measures of employment and work productivity.    Veteran enrollment in the multisite phase of this study began in December of 2014. As of this week, 109 of 220 veterans have been enrolled in the study, and all three study teams will be fully staffed to achieve an enrollment rate of 12 to 15 veterans per month, which would allow all 220 veterans to be enrolled by the end of this year or early 2017. Data collection will end in late 2018. The data will then be analyzed, and the results will be published in a peer-reviewed scientific journal.    While VA does not purchase service dogs for veterans, VA does provide veterinary care benefits to eligible veterans to managing visual, hearing, or substantial mobility impairment to enable the veteran to live independently. Currently, VA does not provide veterinary care benefits for PTSD or mental health dogs because research has not shown them to be effective in overcoming specific functional limitations.    The carefully designed VA study is incredibly important in addressing shortcomings in the existing research literature that has been reported by others. The VA continues to monitor other scientific literature for quality evidence to inform future policies and remains strongly committed to completing the current study at an estimated cost of at least $12 million.    VA is strongly committed to the delivery of the best care for veterans with PTSD. Advances in research have led to a range of effective treatments that reduce symptoms and increase functioning and well-being. The VA/DOD evidence-based Clinical Practice Guideline recommends the following as first-line treatments: trauma-focused cognitive behavioral therapies such as prolonged exposure, or PE; and cognitive processing therapy, or CPT; eye movement desensitization and reprocessing; stress inoculation; selective serotonin reuptake inhibitors; and venlafaxine, a serotonin norepinephrine reuptake inhibitor.    Research demonstrating the effectiveness of PE and CPT is particularly strong. VHA Handbook 1160.01, Uniform Mental Health Services in VA Medical Centers and Clinics, requires that all VA medical centers provide access to either PE or CPT. VA has supported this requirement by training upwards of 7,000 therapists in PE and CPT as part of a broader initiative to disseminate evidence-based psychotherapy for mental disorders. Uptake of evidence-based therapy such as the CPT across the VA healthcare system was rapid.    For veterans who choose other treatment approaches, the VA offers a range of options to treat PTSD and associated symptoms. VA is a leader in developing evidence-based therapy, the global standard for PTSD treatment.    Mr. Chairman, as a veteran myself, firmly committed to the successful completion of the study, I appreciate the opportunity to appear before you today. I and my colleagues are prepared to answer any questions the committee may have. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Dr. Fallon.    Mr. Diamond, you are now recognized for 5 minutes.</t>
   </si>
   <si>
-    <t>Diamond</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Diamond. Thank you, Mr. Chairman. Thank you, ranking member, members of the committee. We are absolutely thrilled to be here to talk about this very important matter.    My name is Rory Diamond. I'm the Executive Director of K9s for Warriors. We are the Nation's largest provider of service dogs for veterans with PTS, traumatic brain injuries, and/or who have been victims of military sexual trauma.    With me today is Brett Simon, the founder of K9s for Warriors, and the current head of our K9 division. We also have two of our graduates. We have Joe Swoboda, an 18-year Army veteran who did three tours in Iraq. And he's with his service dog Lilly. I also have with me Adam LeGrand, a 10-year Air Force veteran who helped men and women in uniform as a medic. He's with his service dog Molly.    As has already been mentioned, statistically speaking, 22 veterans are going to commit suicide today. That's why K9s for Warriors exists. We are founded by a mom. Her name is Shari Duval, and she was worried about her own son's PTS.    Five years later, K9s for Warriors has grown into an organization with a 36 dedicated staff. We have a 9-acre, 17,000 square foot state-of-the-art campus in Ponte Vedra Beach, Florida. And most important, we have a track record of helping hundreds of veterans overcome the symptoms associated with PTS. Importantly, we are very successful at preventing veteran suicide.    Every warrior that comes through our door gets the family treatment, I would say. They get a service K9, they get equipment, training, certification, seminars, legal instruction, vet care, housing, home-cooked meals. We have house moms who listen to them. We have house dads who provide advice. And frankly, we have full wraparound services and follow-up for the life of the dog and the life of the veteran.    At K9s for Warriors we say we always have our veterans' backs, and we absolutely never charge our veterans. Our program is 100 percent free.    We've had two independent sets of researchers evaluate our program. These are Ph.D.'s who looked at the efficacy of our program, have come back with the exact same conclusion: The program works. The dogs are effective.    Let me just provide a flavor of this. The average K9s for Warriors applicant is on 10 to 15 medications. Fully 92 percent of them will reduce or eliminate those medications after receiving their dog. Seventy-three percent of our graduates improve their overall health. Eighty-five percent will handle anxiety better. Eighty-two percent report having fewer suicidal thoughts and suicidal ideation. Seventy-seven percent report a reduction of nightmares or night terrors, finally being able to get a full night's sleep and being able to get back on a lifecycle.    As Adam LeGrand, who is behind me, says about his service dog Molly, ``She gives me the ability to be a father and a functioning member of society again.'' And Joe, who is behind me, also says, ``I just wouldn't be here without Lilly. She is the light in the darkness of PTSD.''    So when we hear and read on the VA's website that there is ``not enough research yet to know if the dogs actually help treat PTS and its symptoms,'' we fundamentally disagree. There is not a void of research in this regard that we don't know whether or not a service dog can help mitigate the symptoms associated with PTSD and its associated comorbidities. There is enough research. K9s for Warriors is an example of how that can work.    Given the current crisis of veteran suicide in America, we think it makes sense to err on the side of providing more options for our veterans. What is the harm here? The very worst thing that could happen is a veteran ends up with a dog. But the VA's response is something that we have seen over and over and over again, that there is a reluctance to agree that this can work.    Our warriors report to us, and they come from all over the country, 42 States, 150 cities, and we ask them all the time, tell us, how is the VA treating you? How is your PTS being treated? And this is what they tell us, and it's shockingly similar and frustrating to hear it over and over again:    They wait and they wait and they wait and they finally get an appointment. Then they go and get their appointment at the hospital and they wait hour after hour after hour, and finally, they get in front of a psychologist or a psychologist or a clinical social worker, and they have their moment.    And let's understand what this moment is. This is the one lifeline our government is giving these veterans to recover from PTS. This is their one chance. And do they get 45 minutes of a discussion of the wonderful panoply of options that we just heard Dr. Fallon talk about? No. They report to us they get 10, 15 minutes maybe. The first question is always about how are your meds? And then I guarantee you they walk out with another prescription drug. The VA has three responses to the PTS crisis in America: Drugs, drugs, and more drugs to help you with the drugs we already gave you. That is the response, and we find it unacceptable.    The VA in our opinion has fumbled the first round of the pilot program. In our opinion, we have no confidence that they will successfully pull off the second round. We see an immediate veteran suicide crisis today. We believe the time is now, not after the VA gets their act together, but right now, to start saving these lives.    We appreciate the chairman's leadership on this issue and would be happy to answer questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you.    Mr. Lyle, you are up for 5 minutes.</t>
   </si>
   <si>
-    <t>Lyle</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Lyle. Well, thank you, Chairman DeSantis, Ranking Member Lynch, distinguished Representatives of the subcommittee. I appreciate the opportunity to testify.    I'd like to begin by saying that I'm not here for myself. I'm here strictly for my brothers and sisters still struggling to transition to post-military life while also struggling with posttraumatic stress and no other options besides drugs and therapy. I'm here for those of us in the veteran communities who have been left behind and continue to deal with the pain of suicide, as other veterans see no way out. I'm here for the veterans who have lost faith in the system, lost hope for themselves, and have lost purpose in their lives. I'm here for the men and women that, like myself, have had to go it alone and acquire their service dogs at extraordinary financial burden to them.    For these reasons, I've been fighting for the last year to change the existing VA policy. I believe that allowing veterans to fight PTS without all options available to them is tantamount to sending our military to fight an enemy without a secondary weapon in their arsenal.    While in Afghanistan for the majority of 2011, my unit served in the kinetic Helmand Province. I was based out of Camp Leatherneck but spent some time with the British and ISAF forces near Marjah on a Royal air base in Lashkar Gah. My physical injuries as a result of military service are insignificant relative to my fellow veterans.    But like many veterans today who show little signs of physical injury, there are many scars beneath the surface. During the last few months of my deployment, as our replacements were starting to arrive and take over the operational capabilities of our unit, I felt I wasn't doing enough to help the cause of our war fighters. I started volunteering my time, largely during sleep hours, at a severely understaffed Bastion trauma center. It was there, mentally unprepared for the new volunteer role I assumed, that has affected me most in my post-deployment transition.    Upon returning stateside, veterans take a post-deployment health assessment, which indicated that I needed to seek treatment for posttraumatic stress. I started to utilize the VA system, and eventually, I met with a psychologist who confirmed the preliminary results of the health assessment. I was then prescribed sleep aids and antidepressants and told to utilize what's called a Veterans Center in my local area for counseling.    A little less than 2 years on this path, the symptoms seemed to stagnate or get worse. Upon discharge from the Marine Corps in early 2014, interpersonal relationships were harder to maintain than necessary, along with not having the support system of my fellow marines and the chain of command. I didn't have a civilian job, was not in school yet, and simultaneously was experiencing a divorce.    In the same few months, I would experience what most veterans now are all too familiar with: the loss of military friends to preventable suicide. Many of these veterans had gotten addicted to the slew of pills prescribed to them and lost even a glimmer of hope in their lives. Some of these men and women had spouses, had children, mothers, fathers, and friends they left behind because the status quo of treatment for posttraumatic stress failed them.    Life as I'd known it had been ripped away, and one night alone, I decided to end it all. It is only for the timing of a friend, a fellow marine, arriving on my doorstep at that exact moment that I'm here right now, semper fidelis indeed.    The next day I quit medication cold turkey, not wanting to continue down the dark path of opiate addiction. I sought another way and found that a trained service dog was an option, but not one provided by the VA. Further inquiry to local nonprofits similar to K9s for Warriors resulted in wait times over a year, with the demand being as high and nonprofit-based budgets what they are.    A few months after searching myself, I got Kaya, who's at my feet today, who quite literally pounced into my life. I had her obedience trained, then subsequently trained for posttraumatic stress symptoms by an Assistance Dogs International-accredited trainer. After roughly $10,000 all told with my family's assistance, of my own money, I got the help I needed. Yet today, many veterans still don't have those resources.    I still have my bad days, but with Kaya at my side, I'm largely in a different phase. I call it recovery. Retired Marine General James Mattis calls it posttraumatic growth. The bad days are less frequent than they've ever been, and they mainly come when I get news of another friend who has committed suicide.    Since starting this quest, more and more of the veteran community have come forward to impart upon me the stories of their brothers and sisters who have taken their lives. Just last week, a close friend of mine in Texas lost a marine he served with to suicide. A month ago, one of my best friends who I deployed with, and the father of my goddaughter, admitted to me that he had gotten close and also would have succeeded had another marine not stepped in.    They all come to me pleading, in fact begging, to use what voice I have in this chamber and in the halls of Congress to give you all this message: Service dogs will save lives. And with the current epidemic of veteran suicides, it is unconscionable to keep the status quo and wait any longer to institute this change we all know is a viable solution to reduce the epidemic of veteran suicides.    Thank you very much for the opportunity to testify, and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you.    Mr. Feldman, you are up for 5 minutes.</t>
   </si>
   <si>
-    <t>Feldman</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Feldman. That's a tough act to follow.    Mr. Chairman, Ranking Member Lynch, members of the subcommittee, thank you for the opportunity to testify today.    I'm Steve Feldman. I'm the executive director of the Human-Animal Bond Research Initiative. That's HABRI for short. We're a nonprofit research and education foundation that funds research on the benefits of companion animals to human health, and specifically, we're looking at children with autism, we're looking at victims of domestic violence, and we're looking at how we can use these animal-assisted interventions for veterans with posttraumatic stress.    In addition to funding this research, we also have built and maintained the world's largest research library on human-animal interaction, and that's free and online and available and searchable to anyone who's doing research in this area.    And we also support commonsense public policies that should reflect the definitive body of science that show significant positive health impacts that companion animals have on human health.    The VA says it doesn't have enough evidence to support service animals for veterans with PTS. We respectfully disagree, and that's why we support H.R. 4764. We believe there is significant scientific evidence to support the efficacy of service dogs for veterans with PTS.    We funded the first systematic review of research on animal-assisted intervention for victims of trauma. That was conducted at Purdue University, Dr. Fallon's alma mater, and it was published less than a year ago. And what it found was preliminary evidence that animals provide unique elements to address PTS symptoms.    And I think it's also really important to note, because Mr. Diamond said what's the harm, this systematic review of published and unpublished research found no negative effects from any of these studies. So no harm was found in any of the research that we looked at. So we think this supports the conclusion that service dogs for trauma survivors, including veterans with PTS, can positively effect depression, anxiety, social outcomes, sleep, and quality of life.    And we're currently funding a pilot study on the effect of service dogs on mental health and wellness in military veterans with PTS. Scientists are measuring psychological and psychosocial functioning, including symptoms of PTSD, depression, life and relationship satisfaction, and quality of life in 137 military veterans diagnosed with PTSD who either have a service dog or who are waiting to receive one. And the ones who are waiting to receive one is our control --scientific control group.    And so the preliminary unpublished results indicate that military veterans with service dogs exhibit significantly lower overall PTS symptoms severity, and that includes better ability to cope with flashbacks and anxiety attacks; reduced frequency of nightmares and less overall sleep disturbance; lower anxiety, depression, and anger; higher levels of companionship and social reintegration; increased overall psychological well-being; and higher levels of life satisfaction and resilience. And we have to wait for the final results of this study to be published in a peer-reviewed scientific journal, which we expect to happen later this year, but we wanted to bring you these preliminary outcomes because they're so encouraging and so important to the discussion today.    And I also urge the committee and the VA to look broadly at research studies that really look at several key measures of mental health and well-being like depression, anxiety, stress, and social integration, all of which are associated with PTS. My written testimony covers these in great detail, and you can find even more studies in our database.    And that's why an organization like HABRI can be hopefully really helpful because we're looking at the broad spectrum of research, not just one little narrow slice of it. And that broad spectrum of research is pretty definitive. You know, for example, we're looking at what happens in a person's brain when they interact with an animal. The level of oxytocin, which is a good hormone, goes up. The level of cortisol, which is the stress hormone, goes down. And so when fingers meet fur, there's something really fantastic that's happening, and I think we've heard about some of the specific examples today.    You know, if you combine those scientifically documented therapeutic effects with the trained actions of a service dog, you get a powerful combination. The Americans with Disabilities Act recognizes service dogs for PTSD in their regulations, and States are increasingly updating their definition of service animals. Just last year, the State of Florida passed a law to expand protections of service animal statutes to include traumatic brain injury and PTSD. And the inclusion of these protections allows veterans who have a disability that may not be outwardly visible to have access to public accommodations with their service dogs. Sometimes these symptoms manifest themselves in public, so while pets and emotional support animals can provide some of the benefits we've just been discussing, it's only a trained service dog that has full public access that can provide that animal-assisted intervention wherever and whenever it's really necessary for a veteran with PTSD.    You know, what about the doctors on all this? We did a survey last year which showed--of 1,000 doctors which showed that 69 percent of them have worked with animals and hospitals, medical centers, or medical practice, and 88 percent of doctors a saw improvement in a patient's physical condition and 97 percent saw an improvement in patients' mental health condition as a result of animal-assisted intervention. So doctors are likely to be really supportive if we can get this program going, and really willing participants as we provide service dogs to veterans with PTS.    So I just want to conclude by saying there is a growing body of research that demonstrates widespread positive mental health impacts from the human-animal bond, and we hope that you and the VA will take this broad evidence into consideration when shaping public health policy both in relation to 4764 and beyond.    And I hope the members of the subcommittee and the VA will rely on HABRI as a resource. That's what we're here for, to be a scientific resource for anyone who's interested in this.    With PTS affecting so many of our veterans, we need to make sure that everyone has access to service dogs. And H.R. 4764 really is a great step in the right direction, and that's why we fully support the legislation.    So, Mr. Chairman, Ranking Member Lynch, members of the committee, I really want to thank you. I want to thank your hardworking staff, and especially, Mr. Chairman, thank you for your leadership on this issue. And I'm happy to answer any questions that you may have.</t>
   </si>
   <si>
@@ -280,9 +262,6 @@
     <t>412650</t>
   </si>
   <si>
-    <t>Steve Russell</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman, and thank you each for being here today.    Dr. Fallon, I noticed that you served in the military. Thank you for your service.</t>
   </si>
   <si>
@@ -349,9 +328,6 @@
     <t xml:space="preserve">    Mr. Fallon. Dr. Crowe, would you like to ----</t>
   </si>
   <si>
-    <t>Crowe</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Crowe. Yes, I'd be happy to.</t>
   </si>
   <si>
@@ -400,9 +376,6 @@
     <t>412623</t>
   </si>
   <si>
-    <t>Jody B. Hice</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you very much, Mr. Chairman.    Dr. Fallon, do you have any idea how the VA is recruiting qualified veterans for this study?</t>
   </si>
   <si>
@@ -560,9 +533,6 @@
   </si>
   <si>
     <t>412654</t>
-  </si>
-  <si>
-    <t>Will Hurd</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Chairman.    And I would like to thank the distinguished gentleman from Florida for having this panel, and I would like to thank Mr. Lyle for being here. He is from my alma mater, Texas A&amp;M University.</t>
@@ -1075,11 +1045,9 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" t="s"/>
+      <c r="H2" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -1101,11 +1069,9 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3" t="s">
-        <v>12</v>
-      </c>
+      <c r="G3" t="s"/>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1125,13 +1091,11 @@
         <v>10</v>
       </c>
       <c r="F4" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" t="s"/>
+      <c r="H4" t="s">
         <v>15</v>
-      </c>
-      <c r="G4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -1153,11 +1117,9 @@
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5" t="s">
-        <v>12</v>
-      </c>
+      <c r="G5" t="s"/>
       <c r="H5" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -1177,13 +1139,11 @@
         <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G6" t="s"/>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -1205,11 +1165,9 @@
       <c r="F7" t="s">
         <v>11</v>
       </c>
-      <c r="G7" t="s">
-        <v>12</v>
-      </c>
+      <c r="G7" t="s"/>
       <c r="H7" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1229,13 +1187,11 @@
         <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G8" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G8" t="s"/>
       <c r="H8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -1257,11 +1213,9 @@
       <c r="F9" t="s">
         <v>11</v>
       </c>
-      <c r="G9" t="s">
-        <v>12</v>
-      </c>
+      <c r="G9" t="s"/>
       <c r="H9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -1283,11 +1237,9 @@
       <c r="F10" t="s">
         <v>11</v>
       </c>
-      <c r="G10" t="s">
-        <v>12</v>
-      </c>
+      <c r="G10" t="s"/>
       <c r="H10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -1307,13 +1259,11 @@
         <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G11" t="s"/>
       <c r="H11" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -1335,11 +1285,9 @@
       <c r="F12" t="s">
         <v>11</v>
       </c>
-      <c r="G12" t="s">
-        <v>12</v>
-      </c>
+      <c r="G12" t="s"/>
       <c r="H12" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -1359,13 +1307,11 @@
         <v>10</v>
       </c>
       <c r="F13" t="s">
-        <v>23</v>
-      </c>
-      <c r="G13" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G13" t="s"/>
       <c r="H13" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -1387,11 +1333,9 @@
       <c r="F14" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
-        <v>12</v>
-      </c>
+      <c r="G14" t="s"/>
       <c r="H14" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1411,13 +1355,11 @@
         <v>10</v>
       </c>
       <c r="F15" t="s">
-        <v>23</v>
-      </c>
-      <c r="G15" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G15" t="s"/>
       <c r="H15" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1439,11 +1381,9 @@
       <c r="F16" t="s">
         <v>11</v>
       </c>
-      <c r="G16" t="s">
-        <v>12</v>
-      </c>
+      <c r="G16" t="s"/>
       <c r="H16" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1463,13 +1403,11 @@
         <v>10</v>
       </c>
       <c r="F17" t="s">
-        <v>23</v>
-      </c>
-      <c r="G17" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G17" t="s"/>
       <c r="H17" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -1491,11 +1429,9 @@
       <c r="F18" t="s">
         <v>11</v>
       </c>
-      <c r="G18" t="s">
-        <v>12</v>
-      </c>
+      <c r="G18" t="s"/>
       <c r="H18" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -1515,13 +1451,11 @@
         <v>10</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G19" t="s"/>
       <c r="H19" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -1543,11 +1477,9 @@
       <c r="F20" t="s">
         <v>11</v>
       </c>
-      <c r="G20" t="s">
-        <v>12</v>
-      </c>
+      <c r="G20" t="s"/>
       <c r="H20" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -1567,13 +1499,11 @@
         <v>10</v>
       </c>
       <c r="F21" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G21" t="s"/>
       <c r="H21" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1595,11 +1525,9 @@
       <c r="F22" t="s">
         <v>11</v>
       </c>
-      <c r="G22" t="s">
-        <v>12</v>
-      </c>
+      <c r="G22" t="s"/>
       <c r="H22" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1619,13 +1547,11 @@
         <v>10</v>
       </c>
       <c r="F23" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G23" t="s"/>
       <c r="H23" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1647,11 +1573,9 @@
       <c r="F24" t="s">
         <v>11</v>
       </c>
-      <c r="G24" t="s">
-        <v>12</v>
-      </c>
+      <c r="G24" t="s"/>
       <c r="H24" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1671,13 +1595,11 @@
         <v>10</v>
       </c>
       <c r="F25" t="s">
-        <v>23</v>
-      </c>
-      <c r="G25" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G25" t="s"/>
       <c r="H25" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1699,11 +1621,9 @@
       <c r="F26" t="s">
         <v>11</v>
       </c>
-      <c r="G26" t="s">
-        <v>12</v>
-      </c>
+      <c r="G26" t="s"/>
       <c r="H26" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1723,13 +1643,11 @@
         <v>10</v>
       </c>
       <c r="F27" t="s">
-        <v>23</v>
-      </c>
-      <c r="G27" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G27" t="s"/>
       <c r="H27" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1751,11 +1669,9 @@
       <c r="F28" t="s">
         <v>11</v>
       </c>
-      <c r="G28" t="s">
-        <v>12</v>
-      </c>
+      <c r="G28" t="s"/>
       <c r="H28" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1775,13 +1691,11 @@
         <v>10</v>
       </c>
       <c r="F29" t="s">
-        <v>23</v>
-      </c>
-      <c r="G29" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G29" t="s"/>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1803,11 +1717,9 @@
       <c r="F30" t="s">
         <v>11</v>
       </c>
-      <c r="G30" t="s">
-        <v>12</v>
-      </c>
+      <c r="G30" t="s"/>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1827,13 +1739,11 @@
         <v>10</v>
       </c>
       <c r="F31" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G31" t="s"/>
       <c r="H31" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1855,11 +1765,9 @@
       <c r="F32" t="s">
         <v>11</v>
       </c>
-      <c r="G32" t="s">
-        <v>12</v>
-      </c>
+      <c r="G32" t="s"/>
       <c r="H32" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1879,13 +1787,11 @@
         <v>10</v>
       </c>
       <c r="F33" t="s">
-        <v>23</v>
-      </c>
-      <c r="G33" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G33" t="s"/>
       <c r="H33" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1907,11 +1813,9 @@
       <c r="F34" t="s">
         <v>11</v>
       </c>
-      <c r="G34" t="s">
-        <v>12</v>
-      </c>
+      <c r="G34" t="s"/>
       <c r="H34" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1931,13 +1835,11 @@
         <v>10</v>
       </c>
       <c r="F35" t="s">
-        <v>23</v>
-      </c>
-      <c r="G35" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G35" t="s"/>
       <c r="H35" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1959,11 +1861,9 @@
       <c r="F36" t="s">
         <v>11</v>
       </c>
-      <c r="G36" t="s">
-        <v>12</v>
-      </c>
+      <c r="G36" t="s"/>
       <c r="H36" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1983,13 +1883,11 @@
         <v>10</v>
       </c>
       <c r="F37" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G37" t="s"/>
       <c r="H37" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -2011,11 +1909,9 @@
       <c r="F38" t="s">
         <v>11</v>
       </c>
-      <c r="G38" t="s">
-        <v>12</v>
-      </c>
+      <c r="G38" t="s"/>
       <c r="H38" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -2035,13 +1931,11 @@
         <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>23</v>
-      </c>
-      <c r="G39" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G39" t="s"/>
       <c r="H39" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -2063,11 +1957,9 @@
       <c r="F40" t="s">
         <v>11</v>
       </c>
-      <c r="G40" t="s">
-        <v>12</v>
-      </c>
+      <c r="G40" t="s"/>
       <c r="H40" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -2087,13 +1979,11 @@
         <v>10</v>
       </c>
       <c r="F41" t="s">
-        <v>23</v>
-      </c>
-      <c r="G41" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G41" t="s"/>
       <c r="H41" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -2115,11 +2005,9 @@
       <c r="F42" t="s">
         <v>11</v>
       </c>
-      <c r="G42" t="s">
-        <v>12</v>
-      </c>
+      <c r="G42" t="s"/>
       <c r="H42" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -2139,13 +2027,11 @@
         <v>10</v>
       </c>
       <c r="F43" t="s">
-        <v>15</v>
-      </c>
-      <c r="G43" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G43" t="s"/>
       <c r="H43" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -2165,13 +2051,11 @@
         <v>10</v>
       </c>
       <c r="F44" t="s">
-        <v>23</v>
-      </c>
-      <c r="G44" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G44" t="s"/>
       <c r="H44" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -2191,13 +2075,11 @@
         <v>10</v>
       </c>
       <c r="F45" t="s">
-        <v>15</v>
-      </c>
-      <c r="G45" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G45" t="s"/>
       <c r="H45" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -2217,13 +2099,11 @@
         <v>10</v>
       </c>
       <c r="F46" t="s">
-        <v>23</v>
-      </c>
-      <c r="G46" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G46" t="s"/>
       <c r="H46" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -2243,13 +2123,11 @@
         <v>10</v>
       </c>
       <c r="F47" t="s">
-        <v>15</v>
-      </c>
-      <c r="G47" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G47" t="s"/>
       <c r="H47" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -2269,13 +2147,11 @@
         <v>10</v>
       </c>
       <c r="F48" t="s">
-        <v>23</v>
-      </c>
-      <c r="G48" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G48" t="s"/>
       <c r="H48" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -2295,13 +2171,11 @@
         <v>10</v>
       </c>
       <c r="F49" t="s">
-        <v>15</v>
-      </c>
-      <c r="G49" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G49" t="s"/>
       <c r="H49" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -2321,13 +2195,11 @@
         <v>10</v>
       </c>
       <c r="F50" t="s">
-        <v>15</v>
-      </c>
-      <c r="G50" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G50" t="s"/>
       <c r="H50" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -2347,13 +2219,11 @@
         <v>10</v>
       </c>
       <c r="F51" t="s">
-        <v>23</v>
-      </c>
-      <c r="G51" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G51" t="s"/>
       <c r="H51" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -2373,13 +2243,11 @@
         <v>10</v>
       </c>
       <c r="F52" t="s">
-        <v>15</v>
-      </c>
-      <c r="G52" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G52" t="s"/>
       <c r="H52" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -2399,13 +2267,11 @@
         <v>10</v>
       </c>
       <c r="F53" t="s">
-        <v>23</v>
-      </c>
-      <c r="G53" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G53" t="s"/>
       <c r="H53" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2425,13 +2291,11 @@
         <v>10</v>
       </c>
       <c r="F54" t="s">
-        <v>15</v>
-      </c>
-      <c r="G54" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G54" t="s"/>
       <c r="H54" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2451,13 +2315,11 @@
         <v>10</v>
       </c>
       <c r="F55" t="s">
-        <v>23</v>
-      </c>
-      <c r="G55" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G55" t="s"/>
       <c r="H55" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -2477,13 +2339,11 @@
         <v>10</v>
       </c>
       <c r="F56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G56" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G56" t="s"/>
       <c r="H56" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2503,13 +2363,11 @@
         <v>10</v>
       </c>
       <c r="F57" t="s">
-        <v>23</v>
-      </c>
-      <c r="G57" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G57" t="s"/>
       <c r="H57" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2529,13 +2387,11 @@
         <v>10</v>
       </c>
       <c r="F58" t="s">
-        <v>15</v>
-      </c>
-      <c r="G58" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G58" t="s"/>
       <c r="H58" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2555,13 +2411,11 @@
         <v>10</v>
       </c>
       <c r="F59" t="s">
-        <v>23</v>
-      </c>
-      <c r="G59" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G59" t="s"/>
       <c r="H59" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -2581,13 +2435,11 @@
         <v>10</v>
       </c>
       <c r="F60" t="s">
-        <v>15</v>
-      </c>
-      <c r="G60" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G60" t="s"/>
       <c r="H60" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2607,13 +2459,11 @@
         <v>10</v>
       </c>
       <c r="F61" t="s">
-        <v>15</v>
-      </c>
-      <c r="G61" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G61" t="s"/>
       <c r="H61" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="62" spans="1:8">
@@ -2633,13 +2483,11 @@
         <v>10</v>
       </c>
       <c r="F62" t="s">
-        <v>23</v>
-      </c>
-      <c r="G62" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G62" t="s"/>
       <c r="H62" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
     </row>
     <row r="63" spans="1:8">
@@ -2659,13 +2507,11 @@
         <v>10</v>
       </c>
       <c r="F63" t="s">
-        <v>15</v>
-      </c>
-      <c r="G63" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G63" t="s"/>
       <c r="H63" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2685,13 +2531,11 @@
         <v>10</v>
       </c>
       <c r="F64" t="s">
-        <v>23</v>
-      </c>
-      <c r="G64" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G64" t="s"/>
       <c r="H64" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2711,13 +2555,11 @@
         <v>10</v>
       </c>
       <c r="F65" t="s">
-        <v>15</v>
-      </c>
-      <c r="G65" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G65" t="s"/>
       <c r="H65" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2737,13 +2579,11 @@
         <v>10</v>
       </c>
       <c r="F66" t="s">
-        <v>23</v>
-      </c>
-      <c r="G66" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G66" t="s"/>
       <c r="H66" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2763,13 +2603,11 @@
         <v>10</v>
       </c>
       <c r="F67" t="s">
-        <v>15</v>
-      </c>
-      <c r="G67" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G67" t="s"/>
       <c r="H67" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2789,13 +2627,11 @@
         <v>10</v>
       </c>
       <c r="F68" t="s">
-        <v>23</v>
-      </c>
-      <c r="G68" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G68" t="s"/>
       <c r="H68" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2815,13 +2651,11 @@
         <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>15</v>
-      </c>
-      <c r="G69" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G69" t="s"/>
       <c r="H69" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2843,11 +2677,9 @@
       <c r="F70" t="s">
         <v>11</v>
       </c>
-      <c r="G70" t="s">
-        <v>12</v>
-      </c>
+      <c r="G70" t="s"/>
       <c r="H70" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2867,13 +2699,11 @@
         <v>10</v>
       </c>
       <c r="F71" t="s">
-        <v>87</v>
-      </c>
-      <c r="G71" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G71" t="s"/>
       <c r="H71" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2893,13 +2723,11 @@
         <v>10</v>
       </c>
       <c r="F72" t="s">
-        <v>23</v>
-      </c>
-      <c r="G72" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G72" t="s"/>
       <c r="H72" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2919,13 +2747,11 @@
         <v>10</v>
       </c>
       <c r="F73" t="s">
-        <v>87</v>
-      </c>
-      <c r="G73" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G73" t="s"/>
       <c r="H73" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2945,13 +2771,11 @@
         <v>10</v>
       </c>
       <c r="F74" t="s">
-        <v>23</v>
-      </c>
-      <c r="G74" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G74" t="s"/>
       <c r="H74" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2971,13 +2795,11 @@
         <v>10</v>
       </c>
       <c r="F75" t="s">
-        <v>87</v>
-      </c>
-      <c r="G75" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G75" t="s"/>
       <c r="H75" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2997,13 +2819,11 @@
         <v>10</v>
       </c>
       <c r="F76" t="s">
-        <v>23</v>
-      </c>
-      <c r="G76" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G76" t="s"/>
       <c r="H76" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -3023,13 +2843,11 @@
         <v>10</v>
       </c>
       <c r="F77" t="s">
-        <v>87</v>
-      </c>
-      <c r="G77" t="s">
+        <v>81</v>
+      </c>
+      <c r="G77" t="s"/>
+      <c r="H77" t="s">
         <v>88</v>
-      </c>
-      <c r="H77" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -3049,13 +2867,11 @@
         <v>10</v>
       </c>
       <c r="F78" t="s">
-        <v>23</v>
-      </c>
-      <c r="G78" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G78" t="s"/>
       <c r="H78" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -3075,13 +2891,11 @@
         <v>10</v>
       </c>
       <c r="F79" t="s">
-        <v>87</v>
-      </c>
-      <c r="G79" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G79" t="s"/>
       <c r="H79" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -3101,13 +2915,11 @@
         <v>10</v>
       </c>
       <c r="F80" t="s">
-        <v>23</v>
-      </c>
-      <c r="G80" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G80" t="s"/>
       <c r="H80" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -3127,13 +2939,11 @@
         <v>10</v>
       </c>
       <c r="F81" t="s">
-        <v>87</v>
-      </c>
-      <c r="G81" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G81" t="s"/>
       <c r="H81" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -3153,13 +2963,11 @@
         <v>10</v>
       </c>
       <c r="F82" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G82" t="s"/>
       <c r="H82" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -3179,13 +2987,11 @@
         <v>10</v>
       </c>
       <c r="F83" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G83" t="s"/>
       <c r="H83" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -3205,13 +3011,11 @@
         <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>87</v>
-      </c>
-      <c r="G84" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G84" t="s"/>
       <c r="H84" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3231,13 +3035,11 @@
         <v>10</v>
       </c>
       <c r="F85" t="s">
-        <v>23</v>
-      </c>
-      <c r="G85" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G85" t="s"/>
       <c r="H85" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -3257,13 +3059,11 @@
         <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>87</v>
-      </c>
-      <c r="G86" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G86" t="s"/>
       <c r="H86" t="s">
-        <v>104</v>
+        <v>97</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -3283,13 +3083,11 @@
         <v>10</v>
       </c>
       <c r="F87" t="s">
-        <v>23</v>
-      </c>
-      <c r="G87" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G87" t="s"/>
       <c r="H87" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -3309,13 +3107,11 @@
         <v>10</v>
       </c>
       <c r="F88" t="s">
-        <v>23</v>
-      </c>
-      <c r="G88" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G88" t="s"/>
       <c r="H88" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3335,13 +3131,11 @@
         <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>87</v>
-      </c>
-      <c r="G89" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G89" t="s"/>
       <c r="H89" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -3361,13 +3155,11 @@
         <v>10</v>
       </c>
       <c r="F90" t="s">
-        <v>23</v>
-      </c>
-      <c r="G90" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G90" t="s"/>
       <c r="H90" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -3387,13 +3179,11 @@
         <v>10</v>
       </c>
       <c r="F91" t="s">
-        <v>87</v>
-      </c>
-      <c r="G91" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G91" t="s"/>
       <c r="H91" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -3413,13 +3203,11 @@
         <v>10</v>
       </c>
       <c r="F92" t="s">
-        <v>23</v>
-      </c>
-      <c r="G92" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G92" t="s"/>
       <c r="H92" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -3439,13 +3227,11 @@
         <v>10</v>
       </c>
       <c r="F93" t="s">
-        <v>23</v>
-      </c>
-      <c r="G93" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G93" t="s"/>
       <c r="H93" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -3467,11 +3253,9 @@
       <c r="F94" t="s">
         <v>11</v>
       </c>
-      <c r="G94" t="s">
-        <v>12</v>
-      </c>
+      <c r="G94" t="s"/>
       <c r="H94" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -3493,11 +3277,9 @@
       <c r="F95" t="s">
         <v>11</v>
       </c>
-      <c r="G95" t="s">
-        <v>12</v>
-      </c>
+      <c r="G95" t="s"/>
       <c r="H95" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -3517,13 +3299,11 @@
         <v>10</v>
       </c>
       <c r="F96" t="s">
-        <v>23</v>
-      </c>
-      <c r="G96" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G96" t="s"/>
       <c r="H96" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -3543,13 +3323,11 @@
         <v>10</v>
       </c>
       <c r="F97" t="s">
-        <v>87</v>
-      </c>
-      <c r="G97" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G97" t="s"/>
       <c r="H97" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3569,13 +3347,11 @@
         <v>10</v>
       </c>
       <c r="F98" t="s">
-        <v>23</v>
-      </c>
-      <c r="G98" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G98" t="s"/>
       <c r="H98" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3595,13 +3371,11 @@
         <v>10</v>
       </c>
       <c r="F99" t="s">
-        <v>87</v>
-      </c>
-      <c r="G99" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G99" t="s"/>
       <c r="H99" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -3623,11 +3397,9 @@
       <c r="F100" t="s">
         <v>11</v>
       </c>
-      <c r="G100" t="s">
-        <v>12</v>
-      </c>
+      <c r="G100" t="s"/>
       <c r="H100" t="s">
-        <v>119</v>
+        <v>111</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3647,13 +3419,11 @@
         <v>10</v>
       </c>
       <c r="F101" t="s">
-        <v>23</v>
-      </c>
-      <c r="G101" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G101" t="s"/>
       <c r="H101" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3675,11 +3445,9 @@
       <c r="F102" t="s">
         <v>11</v>
       </c>
-      <c r="G102" t="s">
-        <v>12</v>
-      </c>
+      <c r="G102" t="s"/>
       <c r="H102" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3699,13 +3467,11 @@
         <v>10</v>
       </c>
       <c r="F103" t="s">
-        <v>23</v>
-      </c>
-      <c r="G103" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G103" t="s"/>
       <c r="H103" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3725,13 +3491,11 @@
         <v>10</v>
       </c>
       <c r="F104" t="s">
-        <v>87</v>
-      </c>
-      <c r="G104" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G104" t="s"/>
       <c r="H104" t="s">
-        <v>123</v>
+        <v>115</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3751,13 +3515,11 @@
         <v>10</v>
       </c>
       <c r="F105" t="s">
-        <v>23</v>
-      </c>
-      <c r="G105" t="s">
-        <v>111</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G105" t="s"/>
       <c r="H105" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3777,13 +3539,11 @@
         <v>10</v>
       </c>
       <c r="F106" t="s">
-        <v>87</v>
-      </c>
-      <c r="G106" t="s">
-        <v>88</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="G106" t="s"/>
       <c r="H106" t="s">
-        <v>125</v>
+        <v>117</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3805,11 +3565,9 @@
       <c r="F107" t="s">
         <v>11</v>
       </c>
-      <c r="G107" t="s">
-        <v>12</v>
-      </c>
+      <c r="G107" t="s"/>
       <c r="H107" t="s">
-        <v>126</v>
+        <v>118</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3829,13 +3587,11 @@
         <v>10</v>
       </c>
       <c r="F108" t="s">
-        <v>127</v>
-      </c>
-      <c r="G108" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G108" t="s"/>
       <c r="H108" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3855,13 +3611,11 @@
         <v>10</v>
       </c>
       <c r="F109" t="s">
-        <v>23</v>
-      </c>
-      <c r="G109" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G109" t="s"/>
       <c r="H109" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3881,13 +3635,11 @@
         <v>10</v>
       </c>
       <c r="F110" t="s">
-        <v>127</v>
-      </c>
-      <c r="G110" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G110" t="s"/>
       <c r="H110" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3907,13 +3659,11 @@
         <v>10</v>
       </c>
       <c r="F111" t="s">
-        <v>23</v>
-      </c>
-      <c r="G111" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G111" t="s"/>
       <c r="H111" t="s">
-        <v>132</v>
+        <v>123</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3933,13 +3683,11 @@
         <v>10</v>
       </c>
       <c r="F112" t="s">
-        <v>127</v>
-      </c>
-      <c r="G112" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G112" t="s"/>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3959,13 +3707,11 @@
         <v>10</v>
       </c>
       <c r="F113" t="s">
-        <v>23</v>
-      </c>
-      <c r="G113" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G113" t="s"/>
       <c r="H113" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3985,13 +3731,11 @@
         <v>10</v>
       </c>
       <c r="F114" t="s">
-        <v>127</v>
-      </c>
-      <c r="G114" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G114" t="s"/>
       <c r="H114" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -4011,13 +3755,11 @@
         <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>23</v>
-      </c>
-      <c r="G115" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G115" t="s"/>
       <c r="H115" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -4037,13 +3779,11 @@
         <v>10</v>
       </c>
       <c r="F116" t="s">
-        <v>127</v>
-      </c>
-      <c r="G116" t="s">
+        <v>119</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
         <v>128</v>
-      </c>
-      <c r="H116" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -4063,13 +3803,11 @@
         <v>10</v>
       </c>
       <c r="F117" t="s">
-        <v>23</v>
-      </c>
-      <c r="G117" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G117" t="s"/>
       <c r="H117" t="s">
-        <v>138</v>
+        <v>129</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -4089,13 +3827,11 @@
         <v>10</v>
       </c>
       <c r="F118" t="s">
-        <v>127</v>
-      </c>
-      <c r="G118" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G118" t="s"/>
       <c r="H118" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -4115,13 +3851,11 @@
         <v>10</v>
       </c>
       <c r="F119" t="s">
-        <v>23</v>
-      </c>
-      <c r="G119" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G119" t="s"/>
       <c r="H119" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -4141,13 +3875,11 @@
         <v>10</v>
       </c>
       <c r="F120" t="s">
-        <v>127</v>
-      </c>
-      <c r="G120" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G120" t="s"/>
       <c r="H120" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -4167,13 +3899,11 @@
         <v>10</v>
       </c>
       <c r="F121" t="s">
-        <v>23</v>
-      </c>
-      <c r="G121" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G121" t="s"/>
       <c r="H121" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -4193,13 +3923,11 @@
         <v>10</v>
       </c>
       <c r="F122" t="s">
-        <v>127</v>
-      </c>
-      <c r="G122" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G122" t="s"/>
       <c r="H122" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -4219,13 +3947,11 @@
         <v>10</v>
       </c>
       <c r="F123" t="s">
-        <v>23</v>
-      </c>
-      <c r="G123" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G123" t="s"/>
       <c r="H123" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -4245,13 +3971,11 @@
         <v>10</v>
       </c>
       <c r="F124" t="s">
-        <v>127</v>
-      </c>
-      <c r="G124" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G124" t="s"/>
       <c r="H124" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -4271,13 +3995,11 @@
         <v>10</v>
       </c>
       <c r="F125" t="s">
-        <v>23</v>
-      </c>
-      <c r="G125" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G125" t="s"/>
       <c r="H125" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -4297,13 +4019,11 @@
         <v>10</v>
       </c>
       <c r="F126" t="s">
-        <v>127</v>
-      </c>
-      <c r="G126" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G126" t="s"/>
       <c r="H126" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -4323,13 +4043,11 @@
         <v>10</v>
       </c>
       <c r="F127" t="s">
-        <v>23</v>
-      </c>
-      <c r="G127" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G127" t="s"/>
       <c r="H127" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -4349,13 +4067,11 @@
         <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>127</v>
-      </c>
-      <c r="G128" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G128" t="s"/>
       <c r="H128" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -4375,13 +4091,11 @@
         <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>23</v>
-      </c>
-      <c r="G129" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G129" t="s"/>
       <c r="H129" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -4401,13 +4115,11 @@
         <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>127</v>
-      </c>
-      <c r="G130" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G130" t="s"/>
       <c r="H130" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -4427,13 +4139,11 @@
         <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>23</v>
-      </c>
-      <c r="G131" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G131" t="s"/>
       <c r="H131" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -4453,13 +4163,11 @@
         <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>127</v>
-      </c>
-      <c r="G132" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G132" t="s"/>
       <c r="H132" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -4479,13 +4187,11 @@
         <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>23</v>
-      </c>
-      <c r="G133" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G133" t="s"/>
       <c r="H133" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -4505,13 +4211,11 @@
         <v>10</v>
       </c>
       <c r="F134" t="s">
-        <v>127</v>
-      </c>
-      <c r="G134" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G134" t="s"/>
       <c r="H134" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -4531,13 +4235,11 @@
         <v>10</v>
       </c>
       <c r="F135" t="s">
-        <v>23</v>
-      </c>
-      <c r="G135" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G135" t="s"/>
       <c r="H135" t="s">
-        <v>156</v>
+        <v>147</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -4557,13 +4259,11 @@
         <v>10</v>
       </c>
       <c r="F136" t="s">
-        <v>127</v>
-      </c>
-      <c r="G136" t="s">
-        <v>128</v>
-      </c>
+        <v>119</v>
+      </c>
+      <c r="G136" t="s"/>
       <c r="H136" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -4585,11 +4285,9 @@
       <c r="F137" t="s">
         <v>11</v>
       </c>
-      <c r="G137" t="s">
-        <v>12</v>
-      </c>
+      <c r="G137" t="s"/>
       <c r="H137" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4609,13 +4307,11 @@
         <v>10</v>
       </c>
       <c r="F138" t="s">
-        <v>23</v>
-      </c>
-      <c r="G138" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G138" t="s"/>
       <c r="H138" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4637,11 +4333,9 @@
       <c r="F139" t="s">
         <v>11</v>
       </c>
-      <c r="G139" t="s">
-        <v>12</v>
-      </c>
+      <c r="G139" t="s"/>
       <c r="H139" t="s">
-        <v>160</v>
+        <v>151</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4661,13 +4355,11 @@
         <v>10</v>
       </c>
       <c r="F140" t="s">
-        <v>23</v>
-      </c>
-      <c r="G140" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G140" t="s"/>
       <c r="H140" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4689,11 +4381,9 @@
       <c r="F141" t="s">
         <v>11</v>
       </c>
-      <c r="G141" t="s">
-        <v>12</v>
-      </c>
+      <c r="G141" t="s"/>
       <c r="H141" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4713,13 +4403,11 @@
         <v>10</v>
       </c>
       <c r="F142" t="s">
-        <v>23</v>
-      </c>
-      <c r="G142" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G142" t="s"/>
       <c r="H142" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4741,11 +4429,9 @@
       <c r="F143" t="s">
         <v>11</v>
       </c>
-      <c r="G143" t="s">
-        <v>12</v>
-      </c>
+      <c r="G143" t="s"/>
       <c r="H143" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4765,13 +4451,11 @@
         <v>10</v>
       </c>
       <c r="F144" t="s">
-        <v>23</v>
-      </c>
-      <c r="G144" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G144" t="s"/>
       <c r="H144" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4793,11 +4477,9 @@
       <c r="F145" t="s">
         <v>11</v>
       </c>
-      <c r="G145" t="s">
-        <v>12</v>
-      </c>
+      <c r="G145" t="s"/>
       <c r="H145" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4817,13 +4499,11 @@
         <v>10</v>
       </c>
       <c r="F146" t="s">
-        <v>23</v>
-      </c>
-      <c r="G146" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G146" t="s"/>
       <c r="H146" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4845,11 +4525,9 @@
       <c r="F147" t="s">
         <v>11</v>
       </c>
-      <c r="G147" t="s">
-        <v>12</v>
-      </c>
+      <c r="G147" t="s"/>
       <c r="H147" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4869,13 +4547,11 @@
         <v>10</v>
       </c>
       <c r="F148" t="s">
-        <v>23</v>
-      </c>
-      <c r="G148" t="s">
-        <v>33</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G148" t="s"/>
       <c r="H148" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4897,11 +4573,9 @@
       <c r="F149" t="s">
         <v>11</v>
       </c>
-      <c r="G149" t="s">
-        <v>12</v>
-      </c>
+      <c r="G149" t="s"/>
       <c r="H149" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4921,13 +4595,11 @@
         <v>10</v>
       </c>
       <c r="F150" t="s">
-        <v>23</v>
-      </c>
-      <c r="G150" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G150" t="s"/>
       <c r="H150" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4949,11 +4621,9 @@
       <c r="F151" t="s">
         <v>11</v>
       </c>
-      <c r="G151" t="s">
-        <v>12</v>
-      </c>
+      <c r="G151" t="s"/>
       <c r="H151" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4973,13 +4643,11 @@
         <v>10</v>
       </c>
       <c r="F152" t="s">
-        <v>15</v>
-      </c>
-      <c r="G152" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G152" t="s"/>
       <c r="H152" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -5001,11 +4669,9 @@
       <c r="F153" t="s">
         <v>11</v>
       </c>
-      <c r="G153" t="s">
-        <v>12</v>
-      </c>
+      <c r="G153" t="s"/>
       <c r="H153" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -5025,13 +4691,11 @@
         <v>10</v>
       </c>
       <c r="F154" t="s">
-        <v>15</v>
-      </c>
-      <c r="G154" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G154" t="s"/>
       <c r="H154" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -5053,11 +4717,9 @@
       <c r="F155" t="s">
         <v>11</v>
       </c>
-      <c r="G155" t="s">
-        <v>12</v>
-      </c>
+      <c r="G155" t="s"/>
       <c r="H155" t="s">
-        <v>175</v>
+        <v>166</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -5077,13 +4739,11 @@
         <v>10</v>
       </c>
       <c r="F156" t="s">
-        <v>15</v>
-      </c>
-      <c r="G156" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G156" t="s"/>
       <c r="H156" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -5103,13 +4763,11 @@
         <v>10</v>
       </c>
       <c r="F157" t="s">
-        <v>23</v>
-      </c>
-      <c r="G157" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G157" t="s"/>
       <c r="H157" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -5129,13 +4787,11 @@
         <v>10</v>
       </c>
       <c r="F158" t="s">
-        <v>23</v>
-      </c>
-      <c r="G158" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G158" t="s"/>
       <c r="H158" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -5155,13 +4811,11 @@
         <v>10</v>
       </c>
       <c r="F159" t="s">
-        <v>15</v>
-      </c>
-      <c r="G159" t="s">
-        <v>16</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G159" t="s"/>
       <c r="H159" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -5183,11 +4837,9 @@
       <c r="F160" t="s">
         <v>11</v>
       </c>
-      <c r="G160" t="s">
-        <v>12</v>
-      </c>
+      <c r="G160" t="s"/>
       <c r="H160" t="s">
-        <v>180</v>
+        <v>171</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -5207,13 +4859,11 @@
         <v>10</v>
       </c>
       <c r="F161" t="s">
-        <v>181</v>
-      </c>
-      <c r="G161" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G161" t="s"/>
       <c r="H161" t="s">
-        <v>183</v>
+        <v>173</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -5233,13 +4883,11 @@
         <v>10</v>
       </c>
       <c r="F162" t="s">
-        <v>23</v>
-      </c>
-      <c r="G162" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G162" t="s"/>
       <c r="H162" t="s">
-        <v>184</v>
+        <v>174</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -5259,13 +4907,11 @@
         <v>10</v>
       </c>
       <c r="F163" t="s">
-        <v>181</v>
-      </c>
-      <c r="G163" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G163" t="s"/>
       <c r="H163" t="s">
-        <v>185</v>
+        <v>175</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -5285,13 +4931,11 @@
         <v>10</v>
       </c>
       <c r="F164" t="s">
-        <v>23</v>
-      </c>
-      <c r="G164" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G164" t="s"/>
       <c r="H164" t="s">
-        <v>186</v>
+        <v>176</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -5311,13 +4955,11 @@
         <v>10</v>
       </c>
       <c r="F165" t="s">
-        <v>181</v>
-      </c>
-      <c r="G165" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G165" t="s"/>
       <c r="H165" t="s">
-        <v>187</v>
+        <v>177</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -5337,13 +4979,11 @@
         <v>10</v>
       </c>
       <c r="F166" t="s">
-        <v>23</v>
-      </c>
-      <c r="G166" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G166" t="s"/>
       <c r="H166" t="s">
-        <v>188</v>
+        <v>178</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -5363,13 +5003,11 @@
         <v>10</v>
       </c>
       <c r="F167" t="s">
-        <v>181</v>
-      </c>
-      <c r="G167" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G167" t="s"/>
       <c r="H167" t="s">
-        <v>189</v>
+        <v>179</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -5389,13 +5027,11 @@
         <v>10</v>
       </c>
       <c r="F168" t="s">
-        <v>181</v>
-      </c>
-      <c r="G168" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G168" t="s"/>
       <c r="H168" t="s">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -5415,13 +5051,11 @@
         <v>10</v>
       </c>
       <c r="F169" t="s">
-        <v>23</v>
-      </c>
-      <c r="G169" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G169" t="s"/>
       <c r="H169" t="s">
-        <v>191</v>
+        <v>181</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -5441,13 +5075,11 @@
         <v>10</v>
       </c>
       <c r="F170" t="s">
-        <v>181</v>
-      </c>
-      <c r="G170" t="s">
+        <v>172</v>
+      </c>
+      <c r="G170" t="s"/>
+      <c r="H170" t="s">
         <v>182</v>
-      </c>
-      <c r="H170" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -5467,13 +5099,11 @@
         <v>10</v>
       </c>
       <c r="F171" t="s">
-        <v>23</v>
-      </c>
-      <c r="G171" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G171" t="s"/>
       <c r="H171" t="s">
-        <v>193</v>
+        <v>183</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -5493,13 +5123,11 @@
         <v>10</v>
       </c>
       <c r="F172" t="s">
-        <v>181</v>
-      </c>
-      <c r="G172" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G172" t="s"/>
       <c r="H172" t="s">
-        <v>194</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -5519,13 +5147,11 @@
         <v>10</v>
       </c>
       <c r="F173" t="s">
-        <v>23</v>
-      </c>
-      <c r="G173" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G173" t="s"/>
       <c r="H173" t="s">
-        <v>195</v>
+        <v>185</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -5545,13 +5171,11 @@
         <v>10</v>
       </c>
       <c r="F174" t="s">
-        <v>181</v>
-      </c>
-      <c r="G174" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G174" t="s"/>
       <c r="H174" t="s">
-        <v>196</v>
+        <v>186</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -5571,13 +5195,11 @@
         <v>10</v>
       </c>
       <c r="F175" t="s">
-        <v>23</v>
-      </c>
-      <c r="G175" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G175" t="s"/>
       <c r="H175" t="s">
-        <v>197</v>
+        <v>187</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -5597,13 +5219,11 @@
         <v>10</v>
       </c>
       <c r="F176" t="s">
-        <v>181</v>
-      </c>
-      <c r="G176" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G176" t="s"/>
       <c r="H176" t="s">
-        <v>198</v>
+        <v>188</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -5623,13 +5243,11 @@
         <v>10</v>
       </c>
       <c r="F177" t="s">
-        <v>23</v>
-      </c>
-      <c r="G177" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G177" t="s"/>
       <c r="H177" t="s">
-        <v>199</v>
+        <v>189</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5649,13 +5267,11 @@
         <v>10</v>
       </c>
       <c r="F178" t="s">
-        <v>181</v>
-      </c>
-      <c r="G178" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G178" t="s"/>
       <c r="H178" t="s">
-        <v>200</v>
+        <v>190</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5675,13 +5291,11 @@
         <v>10</v>
       </c>
       <c r="F179" t="s">
-        <v>23</v>
-      </c>
-      <c r="G179" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G179" t="s"/>
       <c r="H179" t="s">
-        <v>201</v>
+        <v>191</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5701,13 +5315,11 @@
         <v>10</v>
       </c>
       <c r="F180" t="s">
-        <v>181</v>
-      </c>
-      <c r="G180" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G180" t="s"/>
       <c r="H180" t="s">
-        <v>202</v>
+        <v>192</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5727,13 +5339,11 @@
         <v>10</v>
       </c>
       <c r="F181" t="s">
-        <v>23</v>
-      </c>
-      <c r="G181" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G181" t="s"/>
       <c r="H181" t="s">
-        <v>203</v>
+        <v>193</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5753,13 +5363,11 @@
         <v>10</v>
       </c>
       <c r="F182" t="s">
-        <v>181</v>
-      </c>
-      <c r="G182" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G182" t="s"/>
       <c r="H182" t="s">
-        <v>204</v>
+        <v>194</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5779,13 +5387,11 @@
         <v>10</v>
       </c>
       <c r="F183" t="s">
-        <v>23</v>
-      </c>
-      <c r="G183" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G183" t="s"/>
       <c r="H183" t="s">
-        <v>205</v>
+        <v>195</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5805,13 +5411,11 @@
         <v>10</v>
       </c>
       <c r="F184" t="s">
-        <v>181</v>
-      </c>
-      <c r="G184" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G184" t="s"/>
       <c r="H184" t="s">
-        <v>206</v>
+        <v>196</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5831,13 +5435,11 @@
         <v>10</v>
       </c>
       <c r="F185" t="s">
-        <v>23</v>
-      </c>
-      <c r="G185" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G185" t="s"/>
       <c r="H185" t="s">
-        <v>207</v>
+        <v>197</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5857,13 +5459,11 @@
         <v>10</v>
       </c>
       <c r="F186" t="s">
-        <v>181</v>
-      </c>
-      <c r="G186" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G186" t="s"/>
       <c r="H186" t="s">
-        <v>208</v>
+        <v>198</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5883,13 +5483,11 @@
         <v>10</v>
       </c>
       <c r="F187" t="s">
-        <v>23</v>
-      </c>
-      <c r="G187" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G187" t="s"/>
       <c r="H187" t="s">
-        <v>209</v>
+        <v>199</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5909,13 +5507,11 @@
         <v>10</v>
       </c>
       <c r="F188" t="s">
-        <v>181</v>
-      </c>
-      <c r="G188" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G188" t="s"/>
       <c r="H188" t="s">
-        <v>210</v>
+        <v>200</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5935,13 +5531,11 @@
         <v>10</v>
       </c>
       <c r="F189" t="s">
-        <v>23</v>
-      </c>
-      <c r="G189" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G189" t="s"/>
       <c r="H189" t="s">
-        <v>211</v>
+        <v>201</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5961,13 +5555,11 @@
         <v>10</v>
       </c>
       <c r="F190" t="s">
-        <v>181</v>
-      </c>
-      <c r="G190" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G190" t="s"/>
       <c r="H190" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5987,13 +5579,11 @@
         <v>10</v>
       </c>
       <c r="F191" t="s">
-        <v>23</v>
-      </c>
-      <c r="G191" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G191" t="s"/>
       <c r="H191" t="s">
-        <v>213</v>
+        <v>203</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -6013,13 +5603,11 @@
         <v>10</v>
       </c>
       <c r="F192" t="s">
-        <v>181</v>
-      </c>
-      <c r="G192" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G192" t="s"/>
       <c r="H192" t="s">
-        <v>212</v>
+        <v>202</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -6039,13 +5627,11 @@
         <v>10</v>
       </c>
       <c r="F193" t="s">
-        <v>23</v>
-      </c>
-      <c r="G193" t="s">
-        <v>24</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G193" t="s"/>
       <c r="H193" t="s">
-        <v>214</v>
+        <v>204</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -6065,13 +5651,11 @@
         <v>10</v>
       </c>
       <c r="F194" t="s">
-        <v>181</v>
-      </c>
-      <c r="G194" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G194" t="s"/>
       <c r="H194" t="s">
-        <v>215</v>
+        <v>205</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -6091,13 +5675,11 @@
         <v>10</v>
       </c>
       <c r="F195" t="s">
-        <v>23</v>
-      </c>
-      <c r="G195" t="s">
-        <v>30</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G195" t="s"/>
       <c r="H195" t="s">
-        <v>216</v>
+        <v>206</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -6117,13 +5699,11 @@
         <v>10</v>
       </c>
       <c r="F196" t="s">
-        <v>181</v>
-      </c>
-      <c r="G196" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G196" t="s"/>
       <c r="H196" t="s">
-        <v>217</v>
+        <v>207</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -6143,13 +5723,11 @@
         <v>10</v>
       </c>
       <c r="F197" t="s">
-        <v>23</v>
-      </c>
-      <c r="G197" t="s">
-        <v>27</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="G197" t="s"/>
       <c r="H197" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -6169,13 +5747,11 @@
         <v>10</v>
       </c>
       <c r="F198" t="s">
-        <v>181</v>
-      </c>
-      <c r="G198" t="s">
-        <v>182</v>
-      </c>
+        <v>172</v>
+      </c>
+      <c r="G198" t="s"/>
       <c r="H198" t="s">
-        <v>219</v>
+        <v>209</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -6197,11 +5773,9 @@
       <c r="F199" t="s">
         <v>11</v>
       </c>
-      <c r="G199" t="s">
-        <v>12</v>
-      </c>
+      <c r="G199" t="s"/>
       <c r="H199" t="s">
-        <v>220</v>
+        <v>210</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23642.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23642.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="211">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -52,6 +55,12 @@
     <t>412526</t>
   </si>
   <si>
+    <t>DeSantis</t>
+  </si>
+  <si>
+    <t>Ron</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. DeSantis. The Subcommittee on National Security will come to order. Without objection, the chair is authorized to declare a recess at any time.    Veteran suicides continue to be a national epidemic. Veterans are estimated to have a suicide rate that is 50 percent higher than those who did not serve in the military. A major driver of suicide rates is the incident of posttraumatic stress among our veterans. According to the Department of Veterans Affairs, between 11 and 20 percent of those who served in Operation Iraqi Freedom and/or Enduring Freedom suffer from PTS. Other estimates range as high as 29 percent.    Veterans with PTS may be troubled by intrusive thoughts; avoid people, places, and things; and experience hyperawareness and nightmares. They may find they are no longer able to trust and love those closest to them. Some may even feel that life is no longer worth living.    Unfortunately, many veterans have met significant problems in receiving the health care they deserve. The issues regarding the inadequate treatment of veterans by the VA have been widely reported. These include long wait times and the overprescription of dangerous opiates. Identifying and utilizing the full range of effective treatments for veterans suffering from posttraumatic stress is something that the VA must do without delay.    One treatment that complements existing therapies is the connection of veterans with PTS with service dogs. These are not comfort dogs or therapy dogs, as useful as those might be. Service dogs perform valuable services for veterans, calming them during a panic attack, turning on lights in a dark home, waking them from nightmares.    Currently, the VA only provides service dogs to veterans with physical impairments. However, a 2010 VA inspector general report stated that the VA ``faces challenges implementing the guide and service dog program. The VA only started assisting mobility and hearing-impaired veterans with service dogs in 2008, 6 years after being authorized to do so. The VA personnel told us the actual demand for service dogs is unknown.'' With tens of thousands of veterans returning with mobility and hearing impairment from wars due to the use of improvised explosive devices and other things, this 6-year delay represents a stunning bureaucratic failure.    The VA contends that there is insufficient evidence that service dogs help those with PTS. However, ample scientific findings and ongoing research suggest that the VA may very well be wrong. Service dogs are not intended to, nor do they cure PTS, but they provide a safe, non-addictive tool for veterans to live normal, functioning, productive lives and they could provide a safe complement to existing treatments for PTS. The urgency of the veteran suicide rate demands that we explore this option.    In the 2010 National Defense Authorization Act, Congress authorized the VA to conduct a 3-year study on the efficacy of pairing veterans with PTS with service dogs. Instead of being completed in 2013, the VA study is not expected to be completed until 2019. According to the VA, the study has undergone ``multiple significant and unexpected challenges.'' The first phase of the study, referred to as phase 1, began in 2011 and had to be suspended and restarted twice, once after two dogs bit children and again after dog health issues arose.    The VA attributed these problems to issues with vendors contracted to provide the service dogs. Many of the dogs provided by the vendor were of substandard quality and had hip dysplasia, a condition that could have been treated earlier if the vendor performed standard screening procedures. Of the 26 veterans that were enrolled in phase 1, only 12 completed the study and four more are expected to complete the study in February of 2017.    The issues with phase 1 could have been avoided if the VA had properly screened the vendors and had reached out to other public and private sector organizations engaged in similar ventures, organizations like K9s for Warriors, with is based in the district I represent, do not experience these issues because of their experience in sourcing and training the dogs.    Instead of conducting outreach, the VA insisted on developing its own veterinary standards for the study, but the Department of Defense already has its own military working dog standards. In fact, DOD is an internationally regarded trainer of dogs and has a team of over 55 personnel, including 14 veterinarians. Had the VA initially adopted DOD standards, the VA could have avoided the $10-$12 million failure of phase 1.    While the VA eventually did reach out and adopt some DOD standards, it appears that development of its own standards was largely duplicative and wasteful. The VA began phase 2 of the study in December of 2014 with numerous changes based on lessons learned from phase 1. These changes included the VA hiring its own dog trainers to provide support to veterans throughout the study, incorporating DOD veterinary standards, and moving the study from one site in Tampa, Florida, to three separate sites in Atlanta, Georgia; Portland, Oregon; and Iowa City, Iowa.    Yet the VA is only meeting half of its monthly recruiting goal of 12 veterans for this study, similar issues echoed in the 2010 VA IG report. This problem is not based on a shortage of interested veterans but instead on the VA's problems filling dog trainer positions and the alleged complexity of the study. With the VA struggling to pair veterans with service dogs, other organizations are attempting to fill the void. In fact, the committee has spoken with various organizations that cumulatively claim to have hundreds of dogs that are trained and ready to be paired.    Contrary to the VA's assertion that ``there is not enough research yet to know if dogs actually help treat posttraumatic stress and its symptoms,'' there is ample anecdotal and scientific evidence that service dogs can help veterans with     Today, we will hear from witnesses familiar with that evidence and from veteran Cole Lyle, who credits his service dog with markedly reducing his PTS symptoms.    Veterans cannot wait until 2018 for the VA to introduce the low-cost, low-risk, and high-reward treatment option. The problem of veteran suicide is too urgent. For this reason, I have introduced the Puppies Assisting Wounded Servicemembers Act of 2016, cosponsored by many of my fellow committee members, including members on both sides of the aisle.    This legislation would create a program for veterans with the most severe levels of PTS who tried a VA-approved treatment and remain very symptomatic to then be referred to an accredited service dog organization. The VA would reimburse the organization supplying those service dogs, and all funds expended would be offset with funds from the VA Office of Human Resources and administration expenses for administrative offices, conference planning, historic preservation, office artwork, and facility interior decor.    Those who risk their lives for this country deserve the absolute best care upon their return, and time is of the essence.    I would like to thank our witnesses for their testimony today. We have veterans testifying and many joining us in the audience, and I want to thank them very much for their service.</t>
   </si>
   <si>
@@ -61,6 +70,12 @@
     <t>400249</t>
   </si>
   <si>
+    <t>Lynch</t>
+  </si>
+  <si>
+    <t>Stephen</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lynch. Thank you, Mr. Chairman. I would like to thank you for holding this hearing to examine the efforts undertaken by the Department of Veterans Affairs to provide service dogs to veterans of the U.S. armed forces to assist with treatment for posttraumatic stress.    I would also like to thank today's panel of witnesses for helping the committee with its work and again thank all our veterans in attendance and active military.    It is the mission of the Department of the VA to serve and honor the more than 21 million dedicated men and women who are America's veterans in fulfillment of President Lincoln's historic commitment to ``care for those who shall have borne the battle and for their widows and orphans.''    With the formal end of the U.S.-led combat mission in Iraq in 2010 and in Afghanistan in 2014, the return of over 2.7 million veterans from extended service in support of Operation Iraqi Freedom, Operation Enduring Freedom, and other war zone deployments, the fundamental duty of the VA to provide dignified care to America's veterans and their families remains as critical as ever. In turn, our continued and bipartisan oversight of the VA is essential to ensuring that the agency is able to carry out its important mission.    As most recently evidenced by the generation of post-9/11 veterans returning from the wars in Iraq and Afghanistan, effective treatment for posttraumatic stress, also known as PTSD, is one urgent area of veterans' health care that the VA and Congress must continue to strengthen. According to the VA's National Center for Posttraumatic Stress, 20 percent of our veterans who served in Operation Iraqi Freedom or Operation Enduring Freedom have PTS in a given year.    The prevalence of posttraumatic stress among our Iraqi and Afghan veterans is primarily the result of multiple tours of duty and repeated, severe, and constant combat exposure. Moreover, the VA has reported that veterans with PTS are particularly vulnerable to the risk of suicide, which continues to affect veterans at a devastating rate. Last month, the VA under secretary for health David Shulkin, again estimated that every day approximately 22 veterans take their lives in this country, and that is tragic.    Similarly, the Department of Defense reported last week that suicide rates for active duty service members remain high for the 7th year in a row with 265 active duty service members lost to suicide in 2015. We are clearly failing to meet our obligations to our returning and active service members.    The impact of posttraumatic stress in our veterans' community is a complex and far-reaching issue that demands a comprehensive approach to treatment and rehabilitation. This includes robust funding for the VA to continue to expand its mental health services. And I was proud to join the chairman to support the bipartisan omnibus funding bill passed by Congress and signed by President Obama at the end of last year that would provide $50 billion for VA medical services and specifically targets mental health care and suicide prevention.    We must also encourage the development of commonsense alternative solutions that could further assist veterans with PTS rehabilitation. One alternative is the topic of today's hearing, providing service dogs to veterans with PTS to help alleviate their related symptoms.    As noted in the American Medical Association Journal of Ethics in June of 2015, ``Initial academic studies have revealed that veterans paired with service dogs report less severe PTS symptoms, stronger social relationships, decreased substance abuse, and other increased health benefits.''    Pursuant to the Defense Authorization Act for fiscal year 2010, Congress itself mandated the VA to conduct a 3-year study, as noted by the chairman in his remarks. That study was to examine the benefits of using service dogs for the treatment of rehabilitation of veterans with physical or mental injuries, including PTS.    Regrettably, as the chairman has noted, the VA encountered numerous challenges in getting this study off the ground, including inadequate oversight over its service dog vendors and inconsistent service dog training standards. As a result, again, as the chairman has noted, the agency now expects to complete the study in November of 2018 or into 2019.    I understand the VA is taking steps to address these problems. However, a delay for a study of this importance for this amount of time is simply unacceptable. And I look forward to examining the progress of this further study with our witnesses.    And I also think that the chairman's idea of going forward with a pilot program, which can be based on the evidence in hand today, is a great way to go at this problem.    So I am proud to cosponsor two pieces of bipartisan legislation that have been introduced in Congress to facilitate the use of service dogs to assist our veterans.    Chairman DeSantis, my colleague on this committee, has introduced H.R. 4764, a bill to require the VA to commence the service dog pilot program right away that is specific to post-9/11 veterans with severe PTS. And I am proud to join him on that.    Also, Representative Jim McGovern of Massachusetts has also reintroduced legislation to establish a grant program to assist nonprofit organizations in developing and establishing service dog programs for veterans. And, Mr. Chairman, I would ask unanimous consent if I could please submit Mr. McGovern's legislation for the record.</t>
   </si>
   <si>
@@ -82,24 +97,36 @@
     <t>N/A</t>
   </si>
   <si>
+    <t>Fallon</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Fallon. Thank you. Good afternoon, Chairman DeSantis, Ranking Member Lynch, and members of the subcommittee. Thank you for the opportunity to update the committee on progress in the VA PTSD service dog study, which pairs veterans with PTS with service dogs. I am accompanied today to my right by Dr. Patricia Dorn, director of the Rehabilitation Research and Development Service; and Dr. Chris Crowe, senior mental health consultant and liaison to the DOD Defense Centers of Excellence for Psychological Health and TBI.    The 2010 National Defense Authorization Act directed VA to undertake a study to assess the benefits, feasibility, and advisability of using service dogs for the treatment or rehabilitation of veterans with physical or mental injuries or disabilities, including PTSD. The benefits of utilizing service dogs and guide dogs for physical disabilities are well established. Therefore, VA designed the study to focus on veterans with PTSD because PTSD is a high-priority health issue in veterans, and the benefits of service dogs in assisting people with PTSD are not established in the scientific literature.    This is a groundbreaking study that aims to determine if veterans with PTSD would benefit from a service dog. For the study, VA hired its own dog trainers to provide obedience and handling support to veterans after they receive a dog, thus reducing experimental bias in the study.    VA also developed its own contract health, behavior, and training standards for dogs. Three studies cites--Atlanta, Iowa City, and Portland, Oregon--are operating and enrolling veterans from different parts of the country. Approximately once a quarter for 21 months, measures are taken of self-care, interpersonal interactions, and social participation, the severity of PTSD symptoms, sleep-related problems, suicidal ideation, the severity of mood disorders and substance abuse, anger directed at others, inpatient and outpatient visits, medication usage, and measures of employment and work productivity.    Veteran enrollment in the multisite phase of this study began in December of 2014. As of this week, 109 of 220 veterans have been enrolled in the study, and all three study teams will be fully staffed to achieve an enrollment rate of 12 to 15 veterans per month, which would allow all 220 veterans to be enrolled by the end of this year or early 2017. Data collection will end in late 2018. The data will then be analyzed, and the results will be published in a peer-reviewed scientific journal.    While VA does not purchase service dogs for veterans, VA does provide veterinary care benefits to eligible veterans to managing visual, hearing, or substantial mobility impairment to enable the veteran to live independently. Currently, VA does not provide veterinary care benefits for PTSD or mental health dogs because research has not shown them to be effective in overcoming specific functional limitations.    The carefully designed VA study is incredibly important in addressing shortcomings in the existing research literature that has been reported by others. The VA continues to monitor other scientific literature for quality evidence to inform future policies and remains strongly committed to completing the current study at an estimated cost of at least $12 million.    VA is strongly committed to the delivery of the best care for veterans with PTSD. Advances in research have led to a range of effective treatments that reduce symptoms and increase functioning and well-being. The VA/DOD evidence-based Clinical Practice Guideline recommends the following as first-line treatments: trauma-focused cognitive behavioral therapies such as prolonged exposure, or PE; and cognitive processing therapy, or CPT; eye movement desensitization and reprocessing; stress inoculation; selective serotonin reuptake inhibitors; and venlafaxine, a serotonin norepinephrine reuptake inhibitor.    Research demonstrating the effectiveness of PE and CPT is particularly strong. VHA Handbook 1160.01, Uniform Mental Health Services in VA Medical Centers and Clinics, requires that all VA medical centers provide access to either PE or CPT. VA has supported this requirement by training upwards of 7,000 therapists in PE and CPT as part of a broader initiative to disseminate evidence-based psychotherapy for mental disorders. Uptake of evidence-based therapy such as the CPT across the VA healthcare system was rapid.    For veterans who choose other treatment approaches, the VA offers a range of options to treat PTSD and associated symptoms. VA is a leader in developing evidence-based therapy, the global standard for PTSD treatment.    Mr. Chairman, as a veteran myself, firmly committed to the successful completion of the study, I appreciate the opportunity to appear before you today. I and my colleagues are prepared to answer any questions the committee may have. Thank you.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you, Dr. Fallon.    Mr. Diamond, you are now recognized for 5 minutes.</t>
   </si>
   <si>
+    <t>Diamond</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Diamond. Thank you, Mr. Chairman. Thank you, ranking member, members of the committee. We are absolutely thrilled to be here to talk about this very important matter.    My name is Rory Diamond. I'm the Executive Director of K9s for Warriors. We are the Nation's largest provider of service dogs for veterans with PTS, traumatic brain injuries, and/or who have been victims of military sexual trauma.    With me today is Brett Simon, the founder of K9s for Warriors, and the current head of our K9 division. We also have two of our graduates. We have Joe Swoboda, an 18-year Army veteran who did three tours in Iraq. And he's with his service dog Lilly. I also have with me Adam LeGrand, a 10-year Air Force veteran who helped men and women in uniform as a medic. He's with his service dog Molly.    As has already been mentioned, statistically speaking, 22 veterans are going to commit suicide today. That's why K9s for Warriors exists. We are founded by a mom. Her name is Shari Duval, and she was worried about her own son's PTS.    Five years later, K9s for Warriors has grown into an organization with a 36 dedicated staff. We have a 9-acre, 17,000 square foot state-of-the-art campus in Ponte Vedra Beach, Florida. And most important, we have a track record of helping hundreds of veterans overcome the symptoms associated with PTS. Importantly, we are very successful at preventing veteran suicide.    Every warrior that comes through our door gets the family treatment, I would say. They get a service K9, they get equipment, training, certification, seminars, legal instruction, vet care, housing, home-cooked meals. We have house moms who listen to them. We have house dads who provide advice. And frankly, we have full wraparound services and follow-up for the life of the dog and the life of the veteran.    At K9s for Warriors we say we always have our veterans' backs, and we absolutely never charge our veterans. Our program is 100 percent free.    We've had two independent sets of researchers evaluate our program. These are Ph.D.'s who looked at the efficacy of our program, have come back with the exact same conclusion: The program works. The dogs are effective.    Let me just provide a flavor of this. The average K9s for Warriors applicant is on 10 to 15 medications. Fully 92 percent of them will reduce or eliminate those medications after receiving their dog. Seventy-three percent of our graduates improve their overall health. Eighty-five percent will handle anxiety better. Eighty-two percent report having fewer suicidal thoughts and suicidal ideation. Seventy-seven percent report a reduction of nightmares or night terrors, finally being able to get a full night's sleep and being able to get back on a lifecycle.    As Adam LeGrand, who is behind me, says about his service dog Molly, ``She gives me the ability to be a father and a functioning member of society again.'' And Joe, who is behind me, also says, ``I just wouldn't be here without Lilly. She is the light in the darkness of PTSD.''    So when we hear and read on the VA's website that there is ``not enough research yet to know if the dogs actually help treat PTS and its symptoms,'' we fundamentally disagree. There is not a void of research in this regard that we don't know whether or not a service dog can help mitigate the symptoms associated with PTSD and its associated comorbidities. There is enough research. K9s for Warriors is an example of how that can work.    Given the current crisis of veteran suicide in America, we think it makes sense to err on the side of providing more options for our veterans. What is the harm here? The very worst thing that could happen is a veteran ends up with a dog. But the VA's response is something that we have seen over and over and over again, that there is a reluctance to agree that this can work.    Our warriors report to us, and they come from all over the country, 42 States, 150 cities, and we ask them all the time, tell us, how is the VA treating you? How is your PTS being treated? And this is what they tell us, and it's shockingly similar and frustrating to hear it over and over again:    They wait and they wait and they wait and they finally get an appointment. Then they go and get their appointment at the hospital and they wait hour after hour after hour, and finally, they get in front of a psychologist or a psychologist or a clinical social worker, and they have their moment.    And let's understand what this moment is. This is the one lifeline our government is giving these veterans to recover from PTS. This is their one chance. And do they get 45 minutes of a discussion of the wonderful panoply of options that we just heard Dr. Fallon talk about? No. They report to us they get 10, 15 minutes maybe. The first question is always about how are your meds? And then I guarantee you they walk out with another prescription drug. The VA has three responses to the PTS crisis in America: Drugs, drugs, and more drugs to help you with the drugs we already gave you. That is the response, and we find it unacceptable.    The VA in our opinion has fumbled the first round of the pilot program. In our opinion, we have no confidence that they will successfully pull off the second round. We see an immediate veteran suicide crisis today. We believe the time is now, not after the VA gets their act together, but right now, to start saving these lives.    We appreciate the chairman's leadership on this issue and would be happy to answer questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you.    Mr. Lyle, you are up for 5 minutes.</t>
   </si>
   <si>
+    <t>Lyle</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Lyle. Well, thank you, Chairman DeSantis, Ranking Member Lynch, distinguished Representatives of the subcommittee. I appreciate the opportunity to testify.    I'd like to begin by saying that I'm not here for myself. I'm here strictly for my brothers and sisters still struggling to transition to post-military life while also struggling with posttraumatic stress and no other options besides drugs and therapy. I'm here for those of us in the veteran communities who have been left behind and continue to deal with the pain of suicide, as other veterans see no way out. I'm here for the veterans who have lost faith in the system, lost hope for themselves, and have lost purpose in their lives. I'm here for the men and women that, like myself, have had to go it alone and acquire their service dogs at extraordinary financial burden to them.    For these reasons, I've been fighting for the last year to change the existing VA policy. I believe that allowing veterans to fight PTS without all options available to them is tantamount to sending our military to fight an enemy without a secondary weapon in their arsenal.    While in Afghanistan for the majority of 2011, my unit served in the kinetic Helmand Province. I was based out of Camp Leatherneck but spent some time with the British and ISAF forces near Marjah on a Royal air base in Lashkar Gah. My physical injuries as a result of military service are insignificant relative to my fellow veterans.    But like many veterans today who show little signs of physical injury, there are many scars beneath the surface. During the last few months of my deployment, as our replacements were starting to arrive and take over the operational capabilities of our unit, I felt I wasn't doing enough to help the cause of our war fighters. I started volunteering my time, largely during sleep hours, at a severely understaffed Bastion trauma center. It was there, mentally unprepared for the new volunteer role I assumed, that has affected me most in my post-deployment transition.    Upon returning stateside, veterans take a post-deployment health assessment, which indicated that I needed to seek treatment for posttraumatic stress. I started to utilize the VA system, and eventually, I met with a psychologist who confirmed the preliminary results of the health assessment. I was then prescribed sleep aids and antidepressants and told to utilize what's called a Veterans Center in my local area for counseling.    A little less than 2 years on this path, the symptoms seemed to stagnate or get worse. Upon discharge from the Marine Corps in early 2014, interpersonal relationships were harder to maintain than necessary, along with not having the support system of my fellow marines and the chain of command. I didn't have a civilian job, was not in school yet, and simultaneously was experiencing a divorce.    In the same few months, I would experience what most veterans now are all too familiar with: the loss of military friends to preventable suicide. Many of these veterans had gotten addicted to the slew of pills prescribed to them and lost even a glimmer of hope in their lives. Some of these men and women had spouses, had children, mothers, fathers, and friends they left behind because the status quo of treatment for posttraumatic stress failed them.    Life as I'd known it had been ripped away, and one night alone, I decided to end it all. It is only for the timing of a friend, a fellow marine, arriving on my doorstep at that exact moment that I'm here right now, semper fidelis indeed.    The next day I quit medication cold turkey, not wanting to continue down the dark path of opiate addiction. I sought another way and found that a trained service dog was an option, but not one provided by the VA. Further inquiry to local nonprofits similar to K9s for Warriors resulted in wait times over a year, with the demand being as high and nonprofit-based budgets what they are.    A few months after searching myself, I got Kaya, who's at my feet today, who quite literally pounced into my life. I had her obedience trained, then subsequently trained for posttraumatic stress symptoms by an Assistance Dogs International-accredited trainer. After roughly $10,000 all told with my family's assistance, of my own money, I got the help I needed. Yet today, many veterans still don't have those resources.    I still have my bad days, but with Kaya at my side, I'm largely in a different phase. I call it recovery. Retired Marine General James Mattis calls it posttraumatic growth. The bad days are less frequent than they've ever been, and they mainly come when I get news of another friend who has committed suicide.    Since starting this quest, more and more of the veteran community have come forward to impart upon me the stories of their brothers and sisters who have taken their lives. Just last week, a close friend of mine in Texas lost a marine he served with to suicide. A month ago, one of my best friends who I deployed with, and the father of my goddaughter, admitted to me that he had gotten close and also would have succeeded had another marine not stepped in.    They all come to me pleading, in fact begging, to use what voice I have in this chamber and in the halls of Congress to give you all this message: Service dogs will save lives. And with the current epidemic of veteran suicides, it is unconscionable to keep the status quo and wait any longer to institute this change we all know is a viable solution to reduce the epidemic of veteran suicides.    Thank you very much for the opportunity to testify, and I look forward to answering your questions.</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. DeSantis. Thank you.    Mr. Feldman, you are up for 5 minutes.</t>
   </si>
   <si>
+    <t>Feldman</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Feldman. That's a tough act to follow.    Mr. Chairman, Ranking Member Lynch, members of the subcommittee, thank you for the opportunity to testify today.    I'm Steve Feldman. I'm the executive director of the Human-Animal Bond Research Initiative. That's HABRI for short. We're a nonprofit research and education foundation that funds research on the benefits of companion animals to human health, and specifically, we're looking at children with autism, we're looking at victims of domestic violence, and we're looking at how we can use these animal-assisted interventions for veterans with posttraumatic stress.    In addition to funding this research, we also have built and maintained the world's largest research library on human-animal interaction, and that's free and online and available and searchable to anyone who's doing research in this area.    And we also support commonsense public policies that should reflect the definitive body of science that show significant positive health impacts that companion animals have on human health.    The VA says it doesn't have enough evidence to support service animals for veterans with PTS. We respectfully disagree, and that's why we support H.R. 4764. We believe there is significant scientific evidence to support the efficacy of service dogs for veterans with PTS.    We funded the first systematic review of research on animal-assisted intervention for victims of trauma. That was conducted at Purdue University, Dr. Fallon's alma mater, and it was published less than a year ago. And what it found was preliminary evidence that animals provide unique elements to address PTS symptoms.    And I think it's also really important to note, because Mr. Diamond said what's the harm, this systematic review of published and unpublished research found no negative effects from any of these studies. So no harm was found in any of the research that we looked at. So we think this supports the conclusion that service dogs for trauma survivors, including veterans with PTS, can positively effect depression, anxiety, social outcomes, sleep, and quality of life.    And we're currently funding a pilot study on the effect of service dogs on mental health and wellness in military veterans with PTS. Scientists are measuring psychological and psychosocial functioning, including symptoms of PTSD, depression, life and relationship satisfaction, and quality of life in 137 military veterans diagnosed with PTSD who either have a service dog or who are waiting to receive one. And the ones who are waiting to receive one is our control --scientific control group.    And so the preliminary unpublished results indicate that military veterans with service dogs exhibit significantly lower overall PTS symptoms severity, and that includes better ability to cope with flashbacks and anxiety attacks; reduced frequency of nightmares and less overall sleep disturbance; lower anxiety, depression, and anger; higher levels of companionship and social reintegration; increased overall psychological well-being; and higher levels of life satisfaction and resilience. And we have to wait for the final results of this study to be published in a peer-reviewed scientific journal, which we expect to happen later this year, but we wanted to bring you these preliminary outcomes because they're so encouraging and so important to the discussion today.    And I also urge the committee and the VA to look broadly at research studies that really look at several key measures of mental health and well-being like depression, anxiety, stress, and social integration, all of which are associated with PTS. My written testimony covers these in great detail, and you can find even more studies in our database.    And that's why an organization like HABRI can be hopefully really helpful because we're looking at the broad spectrum of research, not just one little narrow slice of it. And that broad spectrum of research is pretty definitive. You know, for example, we're looking at what happens in a person's brain when they interact with an animal. The level of oxytocin, which is a good hormone, goes up. The level of cortisol, which is the stress hormone, goes down. And so when fingers meet fur, there's something really fantastic that's happening, and I think we've heard about some of the specific examples today.    You know, if you combine those scientifically documented therapeutic effects with the trained actions of a service dog, you get a powerful combination. The Americans with Disabilities Act recognizes service dogs for PTSD in their regulations, and States are increasingly updating their definition of service animals. Just last year, the State of Florida passed a law to expand protections of service animal statutes to include traumatic brain injury and PTSD. And the inclusion of these protections allows veterans who have a disability that may not be outwardly visible to have access to public accommodations with their service dogs. Sometimes these symptoms manifest themselves in public, so while pets and emotional support animals can provide some of the benefits we've just been discussing, it's only a trained service dog that has full public access that can provide that animal-assisted intervention wherever and whenever it's really necessary for a veteran with PTSD.    You know, what about the doctors on all this? We did a survey last year which showed--of 1,000 doctors which showed that 69 percent of them have worked with animals and hospitals, medical centers, or medical practice, and 88 percent of doctors a saw improvement in a patient's physical condition and 97 percent saw an improvement in patients' mental health condition as a result of animal-assisted intervention. So doctors are likely to be really supportive if we can get this program going, and really willing participants as we provide service dogs to veterans with PTS.    So I just want to conclude by saying there is a growing body of research that demonstrates widespread positive mental health impacts from the human-animal bond, and we hope that you and the VA will take this broad evidence into consideration when shaping public health policy both in relation to 4764 and beyond.    And I hope the members of the subcommittee and the VA will rely on HABRI as a resource. That's what we're here for, to be a scientific resource for anyone who's interested in this.    With PTS affecting so many of our veterans, we need to make sure that everyone has access to service dogs. And H.R. 4764 really is a great step in the right direction, and that's why we fully support the legislation.    So, Mr. Chairman, Ranking Member Lynch, members of the committee, I really want to thank you. I want to thank your hardworking staff, and especially, Mr. Chairman, thank you for your leadership on this issue. And I'm happy to answer any questions that you may have.</t>
   </si>
   <si>
@@ -262,6 +289,12 @@
     <t>412650</t>
   </si>
   <si>
+    <t>Russell</t>
+  </si>
+  <si>
+    <t>Steve</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Russell. Thank you, Mr. Chairman, and thank you each for being here today.    Dr. Fallon, I noticed that you served in the military. Thank you for your service.</t>
   </si>
   <si>
@@ -328,6 +361,9 @@
     <t xml:space="preserve">    Mr. Fallon. Dr. Crowe, would you like to ----</t>
   </si>
   <si>
+    <t>Crowe</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Crowe. Yes, I'd be happy to.</t>
   </si>
   <si>
@@ -376,6 +412,12 @@
     <t>412623</t>
   </si>
   <si>
+    <t>Hice</t>
+  </si>
+  <si>
+    <t>Jody</t>
+  </si>
+  <si>
     <t xml:space="preserve">    Mr. Hice. Thank you very much, Mr. Chairman.    Dr. Fallon, do you have any idea how the VA is recruiting qualified veterans for this study?</t>
   </si>
   <si>
@@ -533,6 +575,12 @@
   </si>
   <si>
     <t>412654</t>
+  </si>
+  <si>
+    <t>Hurd</t>
+  </si>
+  <si>
+    <t>Will</t>
   </si>
   <si>
     <t xml:space="preserve">    Mr. Hurd. Thank you, Chairman.    And I would like to thank the distinguished gentleman from Florida for having this panel, and I would like to thank Mr. Lyle for being here. He is from my alma mater, Texas A&amp;M University.</t>
@@ -995,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H199"/>
+  <dimension ref="A1:I199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1003,7 +1051,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1025,4757 +1073,5576 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
       <c r="H2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G3" t="s">
+        <v>13</v>
+      </c>
       <c r="H3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G4" t="s">
+        <v>18</v>
+      </c>
       <c r="H4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F5" t="s">
-        <v>11</v>
-      </c>
-      <c r="G5" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G5" t="s">
+        <v>13</v>
+      </c>
       <c r="H5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I5" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-      <c r="G6" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G6" t="s">
+        <v>18</v>
+      </c>
       <c r="H6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G7" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
       <c r="H7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G8" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>18</v>
+      </c>
       <c r="H8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F9" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
       <c r="H9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F10" t="s">
-        <v>11</v>
-      </c>
-      <c r="G10" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
       <c r="H10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D11" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" t="s"/>
-      <c r="H11" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s"/>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D12" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F12" t="s">
-        <v>11</v>
-      </c>
-      <c r="G12" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G12" t="s">
+        <v>13</v>
+      </c>
       <c r="H12" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I12" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D13" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F13" t="s">
-        <v>21</v>
-      </c>
-      <c r="G13" t="s"/>
-      <c r="H13" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G13" t="s">
+        <v>30</v>
+      </c>
+      <c r="H13" t="s"/>
+      <c r="I13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F14" t="s">
-        <v>11</v>
-      </c>
-      <c r="G14" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G14" t="s">
+        <v>13</v>
+      </c>
       <c r="H14" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I14" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F15" t="s">
-        <v>21</v>
-      </c>
-      <c r="G15" t="s"/>
-      <c r="H15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H15" t="s"/>
+      <c r="I15" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F16" t="s">
-        <v>11</v>
-      </c>
-      <c r="G16" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
       <c r="H16" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I16" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
-      </c>
-      <c r="G17" t="s"/>
-      <c r="H17" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G17" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" t="s"/>
+      <c r="I17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F18" t="s">
-        <v>11</v>
-      </c>
-      <c r="G18" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
       <c r="H18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>21</v>
-      </c>
-      <c r="G19" t="s"/>
-      <c r="H19" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s"/>
+      <c r="I19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F20" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
       <c r="H20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F21" t="s">
-        <v>21</v>
-      </c>
-      <c r="G21" t="s"/>
-      <c r="H21" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s"/>
+      <c r="I21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F22" t="s">
-        <v>11</v>
-      </c>
-      <c r="G22" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
       <c r="H22" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I22" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F23" t="s">
-        <v>21</v>
-      </c>
-      <c r="G23" t="s"/>
-      <c r="H23" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s"/>
+      <c r="I23" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F24" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G24" t="s">
+        <v>13</v>
+      </c>
       <c r="H24" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I24" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F25" t="s">
-        <v>21</v>
-      </c>
-      <c r="G25" t="s"/>
-      <c r="H25" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s"/>
+      <c r="I25" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F26" t="s">
-        <v>11</v>
-      </c>
-      <c r="G26" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
       <c r="H26" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F27" t="s">
-        <v>21</v>
-      </c>
-      <c r="G27" t="s"/>
-      <c r="H27" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s"/>
+      <c r="I27" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F28" t="s">
-        <v>11</v>
-      </c>
-      <c r="G28" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
       <c r="H28" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I28" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F29" t="s">
-        <v>21</v>
-      </c>
-      <c r="G29" t="s"/>
-      <c r="H29" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G29" t="s">
+        <v>30</v>
+      </c>
+      <c r="H29" t="s"/>
+      <c r="I29" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F30" t="s">
-        <v>11</v>
-      </c>
-      <c r="G30" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G30" t="s">
+        <v>13</v>
+      </c>
       <c r="H30" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F31" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" t="s"/>
-      <c r="H31" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G31" t="s">
+        <v>36</v>
+      </c>
+      <c r="H31" t="s"/>
+      <c r="I31" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F32" t="s">
-        <v>11</v>
-      </c>
-      <c r="G32" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G32" t="s">
+        <v>13</v>
+      </c>
       <c r="H32" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I32" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F33" t="s">
-        <v>21</v>
-      </c>
-      <c r="G33" t="s"/>
-      <c r="H33" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H33" t="s"/>
+      <c r="I33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F34" t="s">
-        <v>11</v>
-      </c>
-      <c r="G34" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G34" t="s">
+        <v>13</v>
+      </c>
       <c r="H34" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I34" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F35" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" t="s"/>
-      <c r="H35" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G35" t="s">
+        <v>33</v>
+      </c>
+      <c r="H35" t="s"/>
+      <c r="I35" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F36" t="s">
-        <v>11</v>
-      </c>
-      <c r="G36" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
       <c r="H36" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I36" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
-        <v>21</v>
-      </c>
-      <c r="G37" t="s"/>
-      <c r="H37" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G37" t="s">
+        <v>36</v>
+      </c>
+      <c r="H37" t="s"/>
+      <c r="I37" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
-        <v>11</v>
-      </c>
-      <c r="G38" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G38" t="s">
+        <v>13</v>
+      </c>
       <c r="H38" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I38" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
-        <v>21</v>
-      </c>
-      <c r="G39" t="s"/>
-      <c r="H39" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G39" t="s">
+        <v>30</v>
+      </c>
+      <c r="H39" t="s"/>
+      <c r="I39" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
-        <v>11</v>
-      </c>
-      <c r="G40" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G40" t="s">
+        <v>13</v>
+      </c>
       <c r="H40" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I40" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
-        <v>21</v>
-      </c>
-      <c r="G41" t="s"/>
-      <c r="H41" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G41" t="s">
+        <v>33</v>
+      </c>
+      <c r="H41" t="s"/>
+      <c r="I41" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
-        <v>11</v>
-      </c>
-      <c r="G42" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G42" t="s">
+        <v>13</v>
+      </c>
       <c r="H42" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I42" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F43" t="s">
-        <v>14</v>
-      </c>
-      <c r="G43" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G43" t="s">
+        <v>18</v>
+      </c>
       <c r="H43" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F44" t="s">
-        <v>21</v>
-      </c>
-      <c r="G44" t="s"/>
-      <c r="H44" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="45" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G44" t="s">
+        <v>33</v>
+      </c>
+      <c r="H44" t="s"/>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F45" t="s">
-        <v>14</v>
-      </c>
-      <c r="G45" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G45" t="s">
+        <v>18</v>
+      </c>
       <c r="H45" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I45" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F46" t="s">
-        <v>21</v>
-      </c>
-      <c r="G46" t="s"/>
-      <c r="H46" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="47" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G46" t="s">
+        <v>33</v>
+      </c>
+      <c r="H46" t="s"/>
+      <c r="I46" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F47" t="s">
-        <v>14</v>
-      </c>
-      <c r="G47" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G47" t="s">
+        <v>18</v>
+      </c>
       <c r="H47" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I47" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F48" t="s">
-        <v>21</v>
-      </c>
-      <c r="G48" t="s"/>
-      <c r="H48" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G48" t="s">
+        <v>33</v>
+      </c>
+      <c r="H48" t="s"/>
+      <c r="I48" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F49" t="s">
-        <v>14</v>
-      </c>
-      <c r="G49" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G49" t="s">
+        <v>18</v>
+      </c>
       <c r="H49" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F50" t="s">
-        <v>14</v>
-      </c>
-      <c r="G50" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G50" t="s">
+        <v>18</v>
+      </c>
       <c r="H50" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I50" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F51" t="s">
-        <v>21</v>
-      </c>
-      <c r="G51" t="s"/>
-      <c r="H51" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G51" t="s">
+        <v>33</v>
+      </c>
+      <c r="H51" t="s"/>
+      <c r="I51" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F52" t="s">
-        <v>14</v>
-      </c>
-      <c r="G52" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G52" t="s">
+        <v>18</v>
+      </c>
       <c r="H52" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I52" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F53" t="s">
-        <v>21</v>
-      </c>
-      <c r="G53" t="s"/>
-      <c r="H53" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G53" t="s">
+        <v>33</v>
+      </c>
+      <c r="H53" t="s"/>
+      <c r="I53" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F54" t="s">
-        <v>14</v>
-      </c>
-      <c r="G54" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G54" t="s">
+        <v>18</v>
+      </c>
       <c r="H54" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I54" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F55" t="s">
-        <v>21</v>
-      </c>
-      <c r="G55" t="s"/>
-      <c r="H55" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G55" t="s">
+        <v>30</v>
+      </c>
+      <c r="H55" t="s"/>
+      <c r="I55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F56" t="s">
-        <v>14</v>
-      </c>
-      <c r="G56" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G56" t="s">
+        <v>18</v>
+      </c>
       <c r="H56" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I56" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F57" t="s">
-        <v>21</v>
-      </c>
-      <c r="G57" t="s"/>
-      <c r="H57" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G57" t="s">
+        <v>30</v>
+      </c>
+      <c r="H57" t="s"/>
+      <c r="I57" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F58" t="s">
-        <v>14</v>
-      </c>
-      <c r="G58" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G58" t="s">
+        <v>18</v>
+      </c>
       <c r="H58" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I58" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F59" t="s">
-        <v>21</v>
-      </c>
-      <c r="G59" t="s"/>
-      <c r="H59" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G59" t="s">
+        <v>30</v>
+      </c>
+      <c r="H59" t="s"/>
+      <c r="I59" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>14</v>
-      </c>
-      <c r="G60" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G60" t="s">
+        <v>18</v>
+      </c>
       <c r="H60" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I60" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>14</v>
-      </c>
-      <c r="G61" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G61" t="s">
+        <v>18</v>
+      </c>
       <c r="H61" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I61" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>21</v>
-      </c>
-      <c r="G62" t="s"/>
-      <c r="H62" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G62" t="s">
+        <v>30</v>
+      </c>
+      <c r="H62" t="s"/>
+      <c r="I62" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F63" t="s">
-        <v>14</v>
-      </c>
-      <c r="G63" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G63" t="s">
+        <v>18</v>
+      </c>
       <c r="H63" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I63" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F64" t="s">
-        <v>21</v>
-      </c>
-      <c r="G64" t="s"/>
-      <c r="H64" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G64" t="s">
+        <v>33</v>
+      </c>
+      <c r="H64" t="s"/>
+      <c r="I64" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F65" t="s">
-        <v>14</v>
-      </c>
-      <c r="G65" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G65" t="s">
+        <v>18</v>
+      </c>
       <c r="H65" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I65" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F66" t="s">
-        <v>21</v>
-      </c>
-      <c r="G66" t="s"/>
-      <c r="H66" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G66" t="s">
+        <v>33</v>
+      </c>
+      <c r="H66" t="s"/>
+      <c r="I66" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F67" t="s">
-        <v>14</v>
-      </c>
-      <c r="G67" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G67" t="s">
+        <v>18</v>
+      </c>
       <c r="H67" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I67" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F68" t="s">
-        <v>21</v>
-      </c>
-      <c r="G68" t="s"/>
-      <c r="H68" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G68" t="s">
+        <v>36</v>
+      </c>
+      <c r="H68" t="s"/>
+      <c r="I68" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F69" t="s">
-        <v>14</v>
-      </c>
-      <c r="G69" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G69" t="s">
+        <v>18</v>
+      </c>
       <c r="H69" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I69" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F70" t="s">
-        <v>11</v>
-      </c>
-      <c r="G70" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G70" t="s">
+        <v>13</v>
+      </c>
       <c r="H70" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I70" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F71" t="s">
-        <v>81</v>
-      </c>
-      <c r="G71" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G71" t="s">
+        <v>91</v>
+      </c>
       <c r="H71" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I71" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F72" t="s">
-        <v>21</v>
-      </c>
-      <c r="G72" t="s"/>
-      <c r="H72" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G72" t="s">
+        <v>27</v>
+      </c>
+      <c r="H72" t="s"/>
+      <c r="I72" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F73" t="s">
-        <v>81</v>
-      </c>
-      <c r="G73" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G73" t="s">
+        <v>91</v>
+      </c>
       <c r="H73" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I73" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F74" t="s">
-        <v>21</v>
-      </c>
-      <c r="G74" t="s"/>
-      <c r="H74" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G74" t="s">
+        <v>27</v>
+      </c>
+      <c r="H74" t="s"/>
+      <c r="I74" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F75" t="s">
-        <v>81</v>
-      </c>
-      <c r="G75" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G75" t="s">
+        <v>91</v>
+      </c>
       <c r="H75" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I75" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F76" t="s">
-        <v>21</v>
-      </c>
-      <c r="G76" t="s"/>
-      <c r="H76" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G76" t="s">
+        <v>27</v>
+      </c>
+      <c r="H76" t="s"/>
+      <c r="I76" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F77" t="s">
-        <v>81</v>
-      </c>
-      <c r="G77" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G77" t="s">
+        <v>91</v>
+      </c>
       <c r="H77" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I77" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F78" t="s">
-        <v>21</v>
-      </c>
-      <c r="G78" t="s"/>
-      <c r="H78" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G78" t="s">
+        <v>27</v>
+      </c>
+      <c r="H78" t="s"/>
+      <c r="I78" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F79" t="s">
-        <v>81</v>
-      </c>
-      <c r="G79" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G79" t="s">
+        <v>91</v>
+      </c>
       <c r="H79" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I79" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F80" t="s">
-        <v>21</v>
-      </c>
-      <c r="G80" t="s"/>
-      <c r="H80" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G80" t="s">
+        <v>27</v>
+      </c>
+      <c r="H80" t="s"/>
+      <c r="I80" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F81" t="s">
-        <v>81</v>
-      </c>
-      <c r="G81" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G81" t="s">
+        <v>91</v>
+      </c>
       <c r="H81" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="82" spans="1:8">
+      <c r="I81" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F82" t="s">
-        <v>21</v>
-      </c>
-      <c r="G82" t="s"/>
-      <c r="H82" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="83" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G82" t="s">
+        <v>27</v>
+      </c>
+      <c r="H82" t="s"/>
+      <c r="I82" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F83" t="s">
-        <v>21</v>
-      </c>
-      <c r="G83" t="s"/>
-      <c r="H83" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G83" t="s">
+        <v>27</v>
+      </c>
+      <c r="H83" t="s"/>
+      <c r="I83" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F84" t="s">
-        <v>81</v>
-      </c>
-      <c r="G84" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G84" t="s">
+        <v>91</v>
+      </c>
       <c r="H84" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I84" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F85" t="s">
-        <v>21</v>
-      </c>
-      <c r="G85" t="s"/>
-      <c r="H85" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G85" t="s">
+        <v>27</v>
+      </c>
+      <c r="H85" t="s"/>
+      <c r="I85" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F86" t="s">
-        <v>81</v>
-      </c>
-      <c r="G86" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G86" t="s">
+        <v>91</v>
+      </c>
       <c r="H86" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I86" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F87" t="s">
-        <v>21</v>
-      </c>
-      <c r="G87" t="s"/>
-      <c r="H87" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G87" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" t="s"/>
+      <c r="I87" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F88" t="s">
-        <v>21</v>
-      </c>
-      <c r="G88" t="s"/>
-      <c r="H88" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G88" t="s">
+        <v>27</v>
+      </c>
+      <c r="H88" t="s"/>
+      <c r="I88" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F89" t="s">
-        <v>81</v>
-      </c>
-      <c r="G89" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G89" t="s">
+        <v>91</v>
+      </c>
       <c r="H89" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I89" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F90" t="s">
-        <v>21</v>
-      </c>
-      <c r="G90" t="s"/>
-      <c r="H90" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="91" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G90" t="s">
+        <v>27</v>
+      </c>
+      <c r="H90" t="s"/>
+      <c r="I90" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F91" t="s">
-        <v>81</v>
-      </c>
-      <c r="G91" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G91" t="s">
+        <v>91</v>
+      </c>
       <c r="H91" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="92" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I91" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F92" t="s">
-        <v>21</v>
-      </c>
-      <c r="G92" t="s"/>
-      <c r="H92" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G92" t="s">
+        <v>27</v>
+      </c>
+      <c r="H92" t="s"/>
+      <c r="I92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F93" t="s">
-        <v>21</v>
-      </c>
-      <c r="G93" t="s"/>
-      <c r="H93" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G93" t="s">
+        <v>115</v>
+      </c>
+      <c r="H93" t="s"/>
+      <c r="I93" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F94" t="s">
-        <v>11</v>
-      </c>
-      <c r="G94" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G94" t="s">
+        <v>13</v>
+      </c>
       <c r="H94" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I94" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F95" t="s">
-        <v>11</v>
-      </c>
-      <c r="G95" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G95" t="s">
+        <v>13</v>
+      </c>
       <c r="H95" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I95" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F96" t="s">
-        <v>21</v>
-      </c>
-      <c r="G96" t="s"/>
-      <c r="H96" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G96" t="s">
+        <v>115</v>
+      </c>
+      <c r="H96" t="s"/>
+      <c r="I96" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F97" t="s">
-        <v>81</v>
-      </c>
-      <c r="G97" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G97" t="s">
+        <v>91</v>
+      </c>
       <c r="H97" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I97" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F98" t="s">
-        <v>21</v>
-      </c>
-      <c r="G98" t="s"/>
-      <c r="H98" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G98" t="s">
+        <v>115</v>
+      </c>
+      <c r="H98" t="s"/>
+      <c r="I98" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F99" t="s">
-        <v>81</v>
-      </c>
-      <c r="G99" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G99" t="s">
+        <v>91</v>
+      </c>
       <c r="H99" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I99" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F100" t="s">
-        <v>11</v>
-      </c>
-      <c r="G100" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G100" t="s">
+        <v>13</v>
+      </c>
       <c r="H100" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I100" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F101" t="s">
-        <v>21</v>
-      </c>
-      <c r="G101" t="s"/>
-      <c r="H101" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G101" t="s">
+        <v>115</v>
+      </c>
+      <c r="H101" t="s"/>
+      <c r="I101" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F102" t="s">
-        <v>11</v>
-      </c>
-      <c r="G102" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G102" t="s">
+        <v>13</v>
+      </c>
       <c r="H102" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I102" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F103" t="s">
-        <v>21</v>
-      </c>
-      <c r="G103" t="s"/>
-      <c r="H103" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G103" t="s">
+        <v>115</v>
+      </c>
+      <c r="H103" t="s"/>
+      <c r="I103" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F104" t="s">
-        <v>81</v>
-      </c>
-      <c r="G104" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G104" t="s">
+        <v>91</v>
+      </c>
       <c r="H104" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I104" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F105" t="s">
-        <v>21</v>
-      </c>
-      <c r="G105" t="s"/>
-      <c r="H105" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G105" t="s">
+        <v>115</v>
+      </c>
+      <c r="H105" t="s"/>
+      <c r="I105" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F106" t="s">
-        <v>81</v>
-      </c>
-      <c r="G106" t="s"/>
+        <v>90</v>
+      </c>
+      <c r="G106" t="s">
+        <v>91</v>
+      </c>
       <c r="H106" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8">
+        <v>92</v>
+      </c>
+      <c r="I106" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F107" t="s">
-        <v>11</v>
-      </c>
-      <c r="G107" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G107" t="s">
+        <v>13</v>
+      </c>
       <c r="H107" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I107" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F108" t="s">
-        <v>119</v>
-      </c>
-      <c r="G108" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G108" t="s">
+        <v>132</v>
+      </c>
       <c r="H108" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I108" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F109" t="s">
-        <v>21</v>
-      </c>
-      <c r="G109" t="s"/>
-      <c r="H109" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G109" t="s">
+        <v>27</v>
+      </c>
+      <c r="H109" t="s"/>
+      <c r="I109" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F110" t="s">
-        <v>119</v>
-      </c>
-      <c r="G110" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G110" t="s">
+        <v>132</v>
+      </c>
       <c r="H110" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I110" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F111" t="s">
-        <v>21</v>
-      </c>
-      <c r="G111" t="s"/>
-      <c r="H111" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="112" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G111" t="s">
+        <v>27</v>
+      </c>
+      <c r="H111" t="s"/>
+      <c r="I111" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F112" t="s">
-        <v>119</v>
-      </c>
-      <c r="G112" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G112" t="s">
+        <v>132</v>
+      </c>
       <c r="H112" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I112" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F113" t="s">
-        <v>21</v>
-      </c>
-      <c r="G113" t="s"/>
-      <c r="H113" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G113" t="s">
+        <v>27</v>
+      </c>
+      <c r="H113" t="s"/>
+      <c r="I113" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F114" t="s">
-        <v>119</v>
-      </c>
-      <c r="G114" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G114" t="s">
+        <v>132</v>
+      </c>
       <c r="H114" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I114" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F115" t="s">
-        <v>21</v>
-      </c>
-      <c r="G115" t="s"/>
-      <c r="H115" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G115" t="s">
+        <v>27</v>
+      </c>
+      <c r="H115" t="s"/>
+      <c r="I115" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F116" t="s">
-        <v>119</v>
-      </c>
-      <c r="G116" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G116" t="s">
+        <v>132</v>
+      </c>
       <c r="H116" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I116" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F117" t="s">
-        <v>21</v>
-      </c>
-      <c r="G117" t="s"/>
-      <c r="H117" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G117" t="s">
+        <v>27</v>
+      </c>
+      <c r="H117" t="s"/>
+      <c r="I117" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F118" t="s">
-        <v>119</v>
-      </c>
-      <c r="G118" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G118" t="s">
+        <v>132</v>
+      </c>
       <c r="H118" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I118" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F119" t="s">
-        <v>21</v>
-      </c>
-      <c r="G119" t="s"/>
-      <c r="H119" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G119" t="s">
+        <v>27</v>
+      </c>
+      <c r="H119" t="s"/>
+      <c r="I119" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F120" t="s">
-        <v>119</v>
-      </c>
-      <c r="G120" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G120" t="s">
+        <v>132</v>
+      </c>
       <c r="H120" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I120" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F121" t="s">
-        <v>21</v>
-      </c>
-      <c r="G121" t="s"/>
-      <c r="H121" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G121" t="s">
+        <v>27</v>
+      </c>
+      <c r="H121" t="s"/>
+      <c r="I121" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F122" t="s">
-        <v>119</v>
-      </c>
-      <c r="G122" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G122" t="s">
+        <v>132</v>
+      </c>
       <c r="H122" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I122" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F123" t="s">
-        <v>21</v>
-      </c>
-      <c r="G123" t="s"/>
-      <c r="H123" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G123" t="s">
+        <v>27</v>
+      </c>
+      <c r="H123" t="s"/>
+      <c r="I123" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F124" t="s">
-        <v>119</v>
-      </c>
-      <c r="G124" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G124" t="s">
+        <v>132</v>
+      </c>
       <c r="H124" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I124" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F125" t="s">
-        <v>21</v>
-      </c>
-      <c r="G125" t="s"/>
-      <c r="H125" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G125" t="s">
+        <v>30</v>
+      </c>
+      <c r="H125" t="s"/>
+      <c r="I125" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F126" t="s">
-        <v>119</v>
-      </c>
-      <c r="G126" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G126" t="s">
+        <v>132</v>
+      </c>
       <c r="H126" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I126" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F127" t="s">
-        <v>21</v>
-      </c>
-      <c r="G127" t="s"/>
-      <c r="H127" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" t="s"/>
+      <c r="I127" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="128" spans="1:9">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F128" t="s">
-        <v>119</v>
-      </c>
-      <c r="G128" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G128" t="s">
+        <v>132</v>
+      </c>
       <c r="H128" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I128" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="129" spans="1:9">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F129" t="s">
-        <v>21</v>
-      </c>
-      <c r="G129" t="s"/>
-      <c r="H129" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>30</v>
+      </c>
+      <c r="H129" t="s"/>
+      <c r="I129" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="130" spans="1:9">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F130" t="s">
-        <v>119</v>
-      </c>
-      <c r="G130" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G130" t="s">
+        <v>132</v>
+      </c>
       <c r="H130" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I130" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F131" t="s">
-        <v>21</v>
-      </c>
-      <c r="G131" t="s"/>
-      <c r="H131" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G131" t="s">
+        <v>33</v>
+      </c>
+      <c r="H131" t="s"/>
+      <c r="I131" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F132" t="s">
-        <v>119</v>
-      </c>
-      <c r="G132" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G132" t="s">
+        <v>132</v>
+      </c>
       <c r="H132" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I132" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F133" t="s">
-        <v>21</v>
-      </c>
-      <c r="G133" t="s"/>
-      <c r="H133" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G133" t="s">
+        <v>33</v>
+      </c>
+      <c r="H133" t="s"/>
+      <c r="I133" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F134" t="s">
-        <v>119</v>
-      </c>
-      <c r="G134" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G134" t="s">
+        <v>132</v>
+      </c>
       <c r="H134" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I134" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F135" t="s">
-        <v>21</v>
-      </c>
-      <c r="G135" t="s"/>
-      <c r="H135" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G135" t="s">
+        <v>30</v>
+      </c>
+      <c r="H135" t="s"/>
+      <c r="I135" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F136" t="s">
-        <v>119</v>
-      </c>
-      <c r="G136" t="s"/>
+        <v>131</v>
+      </c>
+      <c r="G136" t="s">
+        <v>132</v>
+      </c>
       <c r="H136" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8">
+        <v>133</v>
+      </c>
+      <c r="I136" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F137" t="s">
-        <v>11</v>
-      </c>
-      <c r="G137" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G137" t="s">
+        <v>13</v>
+      </c>
       <c r="H137" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I137" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="138" spans="1:9">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F138" t="s">
-        <v>21</v>
-      </c>
-      <c r="G138" t="s"/>
-      <c r="H138" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G138" t="s">
+        <v>33</v>
+      </c>
+      <c r="H138" t="s"/>
+      <c r="I138" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="139" spans="1:9">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F139" t="s">
-        <v>11</v>
-      </c>
-      <c r="G139" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G139" t="s">
+        <v>13</v>
+      </c>
       <c r="H139" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I139" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="140" spans="1:9">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F140" t="s">
-        <v>21</v>
-      </c>
-      <c r="G140" t="s"/>
-      <c r="H140" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="141" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G140" t="s">
+        <v>33</v>
+      </c>
+      <c r="H140" t="s"/>
+      <c r="I140" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="141" spans="1:9">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F141" t="s">
-        <v>11</v>
-      </c>
-      <c r="G141" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G141" t="s">
+        <v>13</v>
+      </c>
       <c r="H141" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="142" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I141" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="142" spans="1:9">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F142" t="s">
-        <v>21</v>
-      </c>
-      <c r="G142" t="s"/>
-      <c r="H142" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="143" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G142" t="s">
+        <v>33</v>
+      </c>
+      <c r="H142" t="s"/>
+      <c r="I142" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="143" spans="1:9">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F143" t="s">
-        <v>11</v>
-      </c>
-      <c r="G143" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G143" t="s">
+        <v>13</v>
+      </c>
       <c r="H143" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I143" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="144" spans="1:9">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F144" t="s">
-        <v>21</v>
-      </c>
-      <c r="G144" t="s"/>
-      <c r="H144" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G144" t="s">
+        <v>33</v>
+      </c>
+      <c r="H144" t="s"/>
+      <c r="I144" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="145" spans="1:9">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F145" t="s">
-        <v>11</v>
-      </c>
-      <c r="G145" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G145" t="s">
+        <v>13</v>
+      </c>
       <c r="H145" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I145" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="146" spans="1:9">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F146" t="s">
-        <v>21</v>
-      </c>
-      <c r="G146" t="s"/>
-      <c r="H146" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G146" t="s">
+        <v>30</v>
+      </c>
+      <c r="H146" t="s"/>
+      <c r="I146" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="147" spans="1:9">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F147" t="s">
-        <v>11</v>
-      </c>
-      <c r="G147" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G147" t="s">
+        <v>13</v>
+      </c>
       <c r="H147" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I147" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="148" spans="1:9">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F148" t="s">
-        <v>21</v>
-      </c>
-      <c r="G148" t="s"/>
-      <c r="H148" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G148" t="s">
+        <v>36</v>
+      </c>
+      <c r="H148" t="s"/>
+      <c r="I148" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="149" spans="1:9">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F149" t="s">
-        <v>11</v>
-      </c>
-      <c r="G149" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G149" t="s">
+        <v>13</v>
+      </c>
       <c r="H149" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="150" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I149" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="150" spans="1:9">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F150" t="s">
-        <v>21</v>
-      </c>
-      <c r="G150" t="s"/>
-      <c r="H150" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="151" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G150" t="s">
+        <v>33</v>
+      </c>
+      <c r="H150" t="s"/>
+      <c r="I150" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="151" spans="1:9">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F151" t="s">
-        <v>11</v>
-      </c>
-      <c r="G151" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G151" t="s">
+        <v>13</v>
+      </c>
       <c r="H151" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I151" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="152" spans="1:9">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F152" t="s">
-        <v>14</v>
-      </c>
-      <c r="G152" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G152" t="s">
+        <v>18</v>
+      </c>
       <c r="H152" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I152" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="153" spans="1:9">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F153" t="s">
-        <v>11</v>
-      </c>
-      <c r="G153" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G153" t="s">
+        <v>13</v>
+      </c>
       <c r="H153" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I153" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="154" spans="1:9">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F154" t="s">
-        <v>14</v>
-      </c>
-      <c r="G154" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G154" t="s">
+        <v>18</v>
+      </c>
       <c r="H154" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I154" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="155" spans="1:9">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F155" t="s">
-        <v>11</v>
-      </c>
-      <c r="G155" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G155" t="s">
+        <v>13</v>
+      </c>
       <c r="H155" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I155" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F156" t="s">
-        <v>14</v>
-      </c>
-      <c r="G156" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G156" t="s">
+        <v>18</v>
+      </c>
       <c r="H156" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I156" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="157" spans="1:9">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F157" t="s">
-        <v>21</v>
-      </c>
-      <c r="G157" t="s"/>
-      <c r="H157" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G157" t="s">
+        <v>27</v>
+      </c>
+      <c r="H157" t="s"/>
+      <c r="I157" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="158" spans="1:9">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F158" t="s">
-        <v>21</v>
-      </c>
-      <c r="G158" t="s"/>
-      <c r="H158" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G158" t="s">
+        <v>27</v>
+      </c>
+      <c r="H158" t="s"/>
+      <c r="I158" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="159" spans="1:9">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F159" t="s">
-        <v>14</v>
-      </c>
-      <c r="G159" t="s"/>
+        <v>17</v>
+      </c>
+      <c r="G159" t="s">
+        <v>18</v>
+      </c>
       <c r="H159" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8">
+        <v>19</v>
+      </c>
+      <c r="I159" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="160" spans="1:9">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F160" t="s">
-        <v>11</v>
-      </c>
-      <c r="G160" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G160" t="s">
+        <v>13</v>
+      </c>
       <c r="H160" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8">
+        <v>14</v>
+      </c>
+      <c r="I160" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="161" spans="1:9">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F161" t="s">
-        <v>172</v>
-      </c>
-      <c r="G161" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G161" t="s">
+        <v>187</v>
+      </c>
       <c r="H161" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I161" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="162" spans="1:9">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F162" t="s">
-        <v>21</v>
-      </c>
-      <c r="G162" t="s"/>
-      <c r="H162" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G162" t="s">
+        <v>33</v>
+      </c>
+      <c r="H162" t="s"/>
+      <c r="I162" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="163" spans="1:9">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F163" t="s">
-        <v>172</v>
-      </c>
-      <c r="G163" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G163" t="s">
+        <v>187</v>
+      </c>
       <c r="H163" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I163" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="164" spans="1:9">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F164" t="s">
-        <v>21</v>
-      </c>
-      <c r="G164" t="s"/>
-      <c r="H164" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G164" t="s">
+        <v>27</v>
+      </c>
+      <c r="H164" t="s"/>
+      <c r="I164" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="165" spans="1:9">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F165" t="s">
-        <v>172</v>
-      </c>
-      <c r="G165" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G165" t="s">
+        <v>187</v>
+      </c>
       <c r="H165" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I165" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="166" spans="1:9">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F166" t="s">
-        <v>21</v>
-      </c>
-      <c r="G166" t="s"/>
-      <c r="H166" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G166" t="s">
+        <v>27</v>
+      </c>
+      <c r="H166" t="s"/>
+      <c r="I166" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="167" spans="1:9">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F167" t="s">
-        <v>172</v>
-      </c>
-      <c r="G167" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G167" t="s">
+        <v>187</v>
+      </c>
       <c r="H167" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I167" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="168" spans="1:9">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F168" t="s">
-        <v>172</v>
-      </c>
-      <c r="G168" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G168" t="s">
+        <v>187</v>
+      </c>
       <c r="H168" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I168" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="169" spans="1:9">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F169" t="s">
-        <v>21</v>
-      </c>
-      <c r="G169" t="s"/>
-      <c r="H169" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G169" t="s">
+        <v>27</v>
+      </c>
+      <c r="H169" t="s"/>
+      <c r="I169" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="170" spans="1:9">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F170" t="s">
-        <v>172</v>
-      </c>
-      <c r="G170" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G170" t="s">
+        <v>187</v>
+      </c>
       <c r="H170" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I170" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="171" spans="1:9">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F171" t="s">
-        <v>21</v>
-      </c>
-      <c r="G171" t="s"/>
-      <c r="H171" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G171" t="s">
+        <v>27</v>
+      </c>
+      <c r="H171" t="s"/>
+      <c r="I171" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="172" spans="1:9">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F172" t="s">
-        <v>172</v>
-      </c>
-      <c r="G172" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G172" t="s">
+        <v>187</v>
+      </c>
       <c r="H172" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I172" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="173" spans="1:9">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F173" t="s">
-        <v>21</v>
-      </c>
-      <c r="G173" t="s"/>
-      <c r="H173" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G173" t="s">
+        <v>27</v>
+      </c>
+      <c r="H173" t="s"/>
+      <c r="I173" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="174" spans="1:9">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F174" t="s">
-        <v>172</v>
-      </c>
-      <c r="G174" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G174" t="s">
+        <v>187</v>
+      </c>
       <c r="H174" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I174" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="175" spans="1:9">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F175" t="s">
-        <v>21</v>
-      </c>
-      <c r="G175" t="s"/>
-      <c r="H175" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G175" t="s">
+        <v>27</v>
+      </c>
+      <c r="H175" t="s"/>
+      <c r="I175" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="176" spans="1:9">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F176" t="s">
-        <v>172</v>
-      </c>
-      <c r="G176" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G176" t="s">
+        <v>187</v>
+      </c>
       <c r="H176" t="s">
         <v>188</v>
       </c>
-    </row>
-    <row r="177" spans="1:8">
+      <c r="I176" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F177" t="s">
-        <v>21</v>
-      </c>
-      <c r="G177" t="s"/>
-      <c r="H177" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G177" t="s">
+        <v>27</v>
+      </c>
+      <c r="H177" t="s"/>
+      <c r="I177" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="178" spans="1:9">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F178" t="s">
-        <v>172</v>
-      </c>
-      <c r="G178" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G178" t="s">
+        <v>187</v>
+      </c>
       <c r="H178" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I178" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="179" spans="1:9">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F179" t="s">
-        <v>21</v>
-      </c>
-      <c r="G179" t="s"/>
-      <c r="H179" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G179" t="s">
+        <v>27</v>
+      </c>
+      <c r="H179" t="s"/>
+      <c r="I179" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="180" spans="1:9">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F180" t="s">
-        <v>172</v>
-      </c>
-      <c r="G180" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G180" t="s">
+        <v>187</v>
+      </c>
       <c r="H180" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I180" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="181" spans="1:9">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F181" t="s">
-        <v>21</v>
-      </c>
-      <c r="G181" t="s"/>
-      <c r="H181" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G181" t="s">
+        <v>27</v>
+      </c>
+      <c r="H181" t="s"/>
+      <c r="I181" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="182" spans="1:9">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F182" t="s">
-        <v>172</v>
-      </c>
-      <c r="G182" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G182" t="s">
+        <v>187</v>
+      </c>
       <c r="H182" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I182" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="183" spans="1:9">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F183" t="s">
-        <v>21</v>
-      </c>
-      <c r="G183" t="s"/>
-      <c r="H183" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G183" t="s">
+        <v>27</v>
+      </c>
+      <c r="H183" t="s"/>
+      <c r="I183" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="184" spans="1:9">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F184" t="s">
-        <v>172</v>
-      </c>
-      <c r="G184" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G184" t="s">
+        <v>187</v>
+      </c>
       <c r="H184" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I184" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F185" t="s">
-        <v>21</v>
-      </c>
-      <c r="G185" t="s"/>
-      <c r="H185" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G185" t="s">
+        <v>27</v>
+      </c>
+      <c r="H185" t="s"/>
+      <c r="I185" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="186" spans="1:9">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F186" t="s">
-        <v>172</v>
-      </c>
-      <c r="G186" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G186" t="s">
+        <v>187</v>
+      </c>
       <c r="H186" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I186" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F187" t="s">
-        <v>21</v>
-      </c>
-      <c r="G187" t="s"/>
-      <c r="H187" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G187" t="s">
+        <v>27</v>
+      </c>
+      <c r="H187" t="s"/>
+      <c r="I187" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="188" spans="1:9">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F188" t="s">
-        <v>172</v>
-      </c>
-      <c r="G188" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G188" t="s">
+        <v>187</v>
+      </c>
       <c r="H188" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I188" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F189" t="s">
-        <v>21</v>
-      </c>
-      <c r="G189" t="s"/>
-      <c r="H189" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G189" t="s">
+        <v>27</v>
+      </c>
+      <c r="H189" t="s"/>
+      <c r="I189" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="190" spans="1:9">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F190" t="s">
-        <v>172</v>
-      </c>
-      <c r="G190" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G190" t="s">
+        <v>187</v>
+      </c>
       <c r="H190" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I190" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="191" spans="1:9">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F191" t="s">
-        <v>21</v>
-      </c>
-      <c r="G191" t="s"/>
-      <c r="H191" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G191" t="s">
+        <v>27</v>
+      </c>
+      <c r="H191" t="s"/>
+      <c r="I191" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="192" spans="1:9">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F192" t="s">
-        <v>172</v>
-      </c>
-      <c r="G192" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G192" t="s">
+        <v>187</v>
+      </c>
       <c r="H192" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I192" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="193" spans="1:9">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F193" t="s">
-        <v>21</v>
-      </c>
-      <c r="G193" t="s"/>
-      <c r="H193" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G193" t="s">
+        <v>27</v>
+      </c>
+      <c r="H193" t="s"/>
+      <c r="I193" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="194" spans="1:9">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F194" t="s">
-        <v>172</v>
-      </c>
-      <c r="G194" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G194" t="s">
+        <v>187</v>
+      </c>
       <c r="H194" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I194" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="195" spans="1:9">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F195" t="s">
-        <v>21</v>
-      </c>
-      <c r="G195" t="s"/>
-      <c r="H195" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G195" t="s">
+        <v>33</v>
+      </c>
+      <c r="H195" t="s"/>
+      <c r="I195" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="196" spans="1:9">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F196" t="s">
-        <v>172</v>
-      </c>
-      <c r="G196" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G196" t="s">
+        <v>187</v>
+      </c>
       <c r="H196" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I196" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="197" spans="1:9">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F197" t="s">
-        <v>21</v>
-      </c>
-      <c r="G197" t="s"/>
-      <c r="H197" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8">
+        <v>26</v>
+      </c>
+      <c r="G197" t="s">
+        <v>30</v>
+      </c>
+      <c r="H197" t="s"/>
+      <c r="I197" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="198" spans="1:9">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F198" t="s">
-        <v>172</v>
-      </c>
-      <c r="G198" t="s"/>
+        <v>186</v>
+      </c>
+      <c r="G198" t="s">
+        <v>187</v>
+      </c>
       <c r="H198" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8">
+        <v>188</v>
+      </c>
+      <c r="I198" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="199" spans="1:9">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F199" t="s">
-        <v>11</v>
-      </c>
-      <c r="G199" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G199" t="s">
+        <v>13</v>
+      </c>
       <c r="H199" t="s">
-        <v>210</v>
+        <v>14</v>
+      </c>
+      <c r="I199" t="s">
+        <v>226</v>
       </c>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg23642.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg23642.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="227">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="232">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,6 +58,9 @@
     <t>412526</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>DeSantis</t>
   </si>
   <si>
@@ -70,6 +76,9 @@
     <t>400249</t>
   </si>
   <si>
+    <t>Ranking Member</t>
+  </si>
+  <si>
     <t>Lynch</t>
   </si>
   <si>
@@ -289,6 +298,9 @@
     <t>412650</t>
   </si>
   <si>
+    <t>Vice Chair</t>
+  </si>
+  <si>
     <t>Russell</t>
   </si>
   <si>
@@ -410,6 +422,9 @@
   </si>
   <si>
     <t>412623</t>
+  </si>
+  <si>
+    <t>Member</t>
   </si>
   <si>
     <t>Hice</t>
@@ -1043,7 +1058,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1051,7 +1066,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1076,5573 +1091,5996 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C3" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H3" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I3" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G4" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H4" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I4" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J4" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I5" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I6" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="7" spans="1:9">
+      <c r="J6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F8" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I8" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H9" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I9" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
+        <v>14</v>
+      </c>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>29</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
         <v>13</v>
       </c>
-      <c r="H10" t="s">
+      <c r="G12" t="s">
         <v>14</v>
       </c>
-      <c r="I10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" t="s">
-        <v>10</v>
-      </c>
-      <c r="E11" t="s">
-        <v>11</v>
-      </c>
-      <c r="F11" t="s">
-        <v>26</v>
-      </c>
-      <c r="G11" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" t="s"/>
-      <c r="I11" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" t="s">
-        <v>11</v>
-      </c>
-      <c r="F12" t="s">
-        <v>12</v>
-      </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>33</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
         <v>13</v>
       </c>
-      <c r="H12" t="s">
+      <c r="G14" t="s">
         <v>14</v>
       </c>
-      <c r="I12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>8</v>
-      </c>
-      <c r="C13" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" t="s">
-        <v>10</v>
-      </c>
-      <c r="E13" t="s">
-        <v>11</v>
-      </c>
-      <c r="F13" t="s">
-        <v>26</v>
-      </c>
-      <c r="G13" t="s">
-        <v>30</v>
-      </c>
-      <c r="H13" t="s"/>
-      <c r="I13" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>8</v>
-      </c>
-      <c r="C14" t="s">
-        <v>9</v>
-      </c>
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" t="s">
-        <v>12</v>
-      </c>
-      <c r="G14" t="s">
-        <v>13</v>
-      </c>
       <c r="H14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I14" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F15" t="s">
-        <v>26</v>
-      </c>
-      <c r="G15" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" t="s"/>
-      <c r="I15" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>36</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F16" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H16" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I16" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F17" t="s">
-        <v>26</v>
-      </c>
-      <c r="G17" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" t="s"/>
-      <c r="I17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>39</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F18" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H18" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I18" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C19" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" t="s"/>
-      <c r="I19" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>30</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C20" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F20" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H20" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I20" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C21" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F21" t="s">
-        <v>26</v>
-      </c>
-      <c r="G21" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" t="s"/>
-      <c r="I21" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>30</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C22" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F22" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H22" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I22" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C23" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F23" t="s">
-        <v>26</v>
-      </c>
-      <c r="G23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H23" t="s"/>
-      <c r="I23" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>30</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C24" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F24" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H24" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C25" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F25" t="s">
-        <v>26</v>
-      </c>
-      <c r="G25" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" t="s"/>
-      <c r="I25" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C26" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F26" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H26" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I26" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C27" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F27" t="s">
-        <v>26</v>
-      </c>
-      <c r="G27" t="s">
-        <v>27</v>
-      </c>
-      <c r="H27" t="s"/>
-      <c r="I27" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C28" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F28" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H28" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I28" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C29" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F29" t="s">
-        <v>26</v>
-      </c>
-      <c r="G29" t="s">
-        <v>30</v>
-      </c>
-      <c r="H29" t="s"/>
-      <c r="I29" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>33</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E30" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F30" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H30" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I30" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E31" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F31" t="s">
-        <v>26</v>
-      </c>
-      <c r="G31" t="s">
-        <v>36</v>
-      </c>
-      <c r="H31" t="s"/>
-      <c r="I31" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>39</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C32" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E32" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F32" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H32" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I32" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C33" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F33" t="s">
-        <v>26</v>
-      </c>
-      <c r="G33" t="s">
-        <v>36</v>
-      </c>
-      <c r="H33" t="s"/>
-      <c r="I33" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>39</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C34" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F34" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H34" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I34" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C35" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F35" t="s">
-        <v>26</v>
-      </c>
-      <c r="G35" t="s">
-        <v>33</v>
-      </c>
-      <c r="H35" t="s"/>
-      <c r="I35" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>36</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C36" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F36" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H36" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I36" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C37" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F37" t="s">
-        <v>26</v>
-      </c>
-      <c r="G37" t="s">
-        <v>36</v>
-      </c>
-      <c r="H37" t="s"/>
-      <c r="I37" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>39</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C38" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F38" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I38" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C39" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F39" t="s">
-        <v>26</v>
-      </c>
-      <c r="G39" t="s">
-        <v>30</v>
-      </c>
-      <c r="H39" t="s"/>
-      <c r="I39" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>33</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C40" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F40" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I40" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C41" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F41" t="s">
-        <v>26</v>
-      </c>
-      <c r="G41" t="s">
-        <v>33</v>
-      </c>
-      <c r="H41" t="s"/>
-      <c r="I41" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>36</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F42" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I42" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C43" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E43" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F43" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G43" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H43" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I43" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J43" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C44" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E44" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F44" t="s">
-        <v>26</v>
-      </c>
-      <c r="G44" t="s">
-        <v>33</v>
-      </c>
-      <c r="H44" t="s"/>
-      <c r="I44" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C45" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E45" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F45" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G45" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H45" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I45" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J45" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E46" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F46" t="s">
-        <v>26</v>
-      </c>
-      <c r="G46" t="s">
-        <v>33</v>
-      </c>
-      <c r="H46" t="s"/>
-      <c r="I46" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>36</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C47" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E47" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F47" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G47" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H47" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I47" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J47" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C48" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F48" t="s">
-        <v>26</v>
-      </c>
-      <c r="G48" t="s">
-        <v>33</v>
-      </c>
-      <c r="H48" t="s"/>
-      <c r="I48" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C49" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F49" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G49" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H49" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I49" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J49" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C50" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F50" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G50" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H50" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I50" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J50" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C51" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E51" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F51" t="s">
-        <v>26</v>
-      </c>
-      <c r="G51" t="s">
-        <v>33</v>
-      </c>
-      <c r="H51" t="s"/>
-      <c r="I51" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>36</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C52" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E52" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F52" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G52" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H52" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I52" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J52" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C53" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E53" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G53" t="s">
-        <v>33</v>
-      </c>
-      <c r="H53" t="s"/>
-      <c r="I53" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>36</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C54" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E54" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F54" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G54" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H54" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I54" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J54" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C55" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E55" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F55" t="s">
-        <v>26</v>
-      </c>
-      <c r="G55" t="s">
-        <v>30</v>
-      </c>
-      <c r="H55" t="s"/>
-      <c r="I55" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>33</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C56" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E56" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F56" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G56" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H56" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I56" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J56" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C57" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E57" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F57" t="s">
-        <v>26</v>
-      </c>
-      <c r="G57" t="s">
-        <v>30</v>
-      </c>
-      <c r="H57" t="s"/>
-      <c r="I57" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>33</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C58" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E58" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F58" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G58" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H58" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I58" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J58" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C59" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E59" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F59" t="s">
-        <v>26</v>
-      </c>
-      <c r="G59" t="s">
-        <v>30</v>
-      </c>
-      <c r="H59" t="s"/>
-      <c r="I59" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>33</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C60" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F60" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G60" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H60" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I60" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J60" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C61" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F61" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G61" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H61" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I61" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="62" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J61" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C62" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F62" t="s">
-        <v>26</v>
-      </c>
-      <c r="G62" t="s">
-        <v>30</v>
-      </c>
-      <c r="H62" t="s"/>
-      <c r="I62" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>33</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F63" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G63" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H63" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I63" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J63" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C64" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F64" t="s">
-        <v>26</v>
-      </c>
-      <c r="G64" t="s">
-        <v>33</v>
-      </c>
-      <c r="H64" t="s"/>
-      <c r="I64" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>36</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C65" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E65" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G65" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H65" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I65" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J65" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C66" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E66" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F66" t="s">
-        <v>26</v>
-      </c>
-      <c r="G66" t="s">
-        <v>33</v>
-      </c>
-      <c r="H66" t="s"/>
-      <c r="I66" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>36</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C67" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E67" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G67" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H67" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I67" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="68" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J67" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
       <c r="A68" s="1" t="n">
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C68" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E68" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F68" t="s">
-        <v>26</v>
-      </c>
-      <c r="G68" t="s">
-        <v>36</v>
-      </c>
-      <c r="H68" t="s"/>
-      <c r="I68" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>39</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
       <c r="A69" s="1" t="n">
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C69" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E69" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G69" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H69" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I69" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J69" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
       <c r="A70" s="1" t="n">
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C70" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E70" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F70" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G70" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H70" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I70" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J70" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
       <c r="A71" s="1" t="n">
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C71" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E71" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F71" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G71" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H71" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I71" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J71" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
       <c r="A72" s="1" t="n">
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C72" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E72" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F72" t="s">
-        <v>26</v>
-      </c>
-      <c r="G72" t="s">
-        <v>27</v>
-      </c>
-      <c r="H72" t="s"/>
-      <c r="I72" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>30</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
       <c r="A73" s="1" t="n">
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C73" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E73" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F73" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G73" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H73" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I73" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J73" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
       <c r="A74" s="1" t="n">
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C74" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E74" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F74" t="s">
-        <v>26</v>
-      </c>
-      <c r="G74" t="s">
-        <v>27</v>
-      </c>
-      <c r="H74" t="s"/>
-      <c r="I74" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
       <c r="A75" s="1" t="n">
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C75" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E75" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F75" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G75" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H75" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I75" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J75" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
       <c r="A76" s="1" t="n">
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C76" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E76" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F76" t="s">
-        <v>26</v>
-      </c>
-      <c r="G76" t="s">
-        <v>27</v>
-      </c>
-      <c r="H76" t="s"/>
-      <c r="I76" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>30</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
       <c r="A77" s="1" t="n">
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C77" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D77" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E77" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F77" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G77" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H77" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I77" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J77" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
       <c r="A78" s="1" t="n">
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C78" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D78" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E78" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F78" t="s">
-        <v>26</v>
-      </c>
-      <c r="G78" t="s">
-        <v>27</v>
-      </c>
-      <c r="H78" t="s"/>
-      <c r="I78" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G78" t="s"/>
+      <c r="H78" t="s">
+        <v>30</v>
+      </c>
+      <c r="I78" t="s"/>
+      <c r="J78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
       <c r="A79" s="1" t="n">
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D79" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E79" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F79" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G79" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H79" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I79" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J79" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
       <c r="A80" s="1" t="n">
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C80" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D80" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E80" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F80" t="s">
-        <v>26</v>
-      </c>
-      <c r="G80" t="s">
-        <v>27</v>
-      </c>
-      <c r="H80" t="s"/>
-      <c r="I80" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>30</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
       <c r="A81" s="1" t="n">
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C81" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D81" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E81" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F81" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G81" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H81" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I81" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
       <c r="A82" s="1" t="n">
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C82" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D82" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E82" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F82" t="s">
-        <v>26</v>
-      </c>
-      <c r="G82" t="s">
-        <v>27</v>
-      </c>
-      <c r="H82" t="s"/>
-      <c r="I82" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>30</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
       <c r="A83" s="1" t="n">
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C83" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D83" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E83" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F83" t="s">
-        <v>26</v>
-      </c>
-      <c r="G83" t="s">
-        <v>27</v>
-      </c>
-      <c r="H83" t="s"/>
-      <c r="I83" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>30</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
       <c r="A84" s="1" t="n">
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C84" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D84" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E84" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F84" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G84" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H84" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I84" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
       <c r="A85" s="1" t="n">
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C85" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D85" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E85" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F85" t="s">
-        <v>26</v>
-      </c>
-      <c r="G85" t="s">
-        <v>27</v>
-      </c>
-      <c r="H85" t="s"/>
-      <c r="I85" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="86" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>30</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
       <c r="A86" s="1" t="n">
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C86" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D86" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E86" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F86" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G86" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H86" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I86" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
       <c r="A87" s="1" t="n">
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C87" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D87" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E87" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F87" t="s">
-        <v>26</v>
-      </c>
-      <c r="G87" t="s">
-        <v>27</v>
-      </c>
-      <c r="H87" t="s"/>
-      <c r="I87" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="88" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G87" t="s"/>
+      <c r="H87" t="s">
+        <v>30</v>
+      </c>
+      <c r="I87" t="s"/>
+      <c r="J87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
       <c r="A88" s="1" t="n">
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C88" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D88" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E88" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F88" t="s">
-        <v>26</v>
-      </c>
-      <c r="G88" t="s">
-        <v>27</v>
-      </c>
-      <c r="H88" t="s"/>
-      <c r="I88" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="89" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>30</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
       <c r="A89" s="1" t="n">
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C89" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D89" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E89" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F89" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G89" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H89" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I89" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="90" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
       <c r="A90" s="1" t="n">
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C90" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D90" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E90" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F90" t="s">
-        <v>26</v>
-      </c>
-      <c r="G90" t="s">
-        <v>27</v>
-      </c>
-      <c r="H90" t="s"/>
-      <c r="I90" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="91" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>30</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
       <c r="A91" s="1" t="n">
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C91" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D91" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E91" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F91" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G91" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H91" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I91" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="92" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
       <c r="A92" s="1" t="n">
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C92" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D92" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E92" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F92" t="s">
-        <v>26</v>
-      </c>
-      <c r="G92" t="s">
-        <v>27</v>
-      </c>
-      <c r="H92" t="s"/>
-      <c r="I92" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="93" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>30</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
       <c r="A93" s="1" t="n">
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C93" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D93" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E93" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F93" t="s">
-        <v>26</v>
-      </c>
-      <c r="G93" t="s">
-        <v>115</v>
-      </c>
-      <c r="H93" t="s"/>
-      <c r="I93" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="94" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G93" t="s"/>
+      <c r="H93" t="s">
+        <v>119</v>
+      </c>
+      <c r="I93" t="s"/>
+      <c r="J93" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
       <c r="A94" s="1" t="n">
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C94" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D94" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E94" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F94" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G94" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H94" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I94" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="95" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J94" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
       <c r="A95" s="1" t="n">
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C95" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D95" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E95" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F95" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G95" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H95" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I95" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="96" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
       <c r="A96" s="1" t="n">
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C96" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D96" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E96" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F96" t="s">
-        <v>26</v>
-      </c>
-      <c r="G96" t="s">
-        <v>115</v>
-      </c>
-      <c r="H96" t="s"/>
-      <c r="I96" t="s">
+        <v>29</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="97" spans="1:9">
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
       <c r="A97" s="1" t="n">
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C97" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D97" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E97" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F97" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G97" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H97" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I97" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="98" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J97" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
       <c r="A98" s="1" t="n">
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C98" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D98" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E98" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F98" t="s">
-        <v>26</v>
-      </c>
-      <c r="G98" t="s">
-        <v>115</v>
-      </c>
-      <c r="H98" t="s"/>
-      <c r="I98" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="99" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>119</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
       <c r="A99" s="1" t="n">
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C99" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D99" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E99" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F99" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G99" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H99" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I99" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="100" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J99" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
       <c r="A100" s="1" t="n">
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C100" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D100" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E100" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F100" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G100" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H100" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I100" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="101" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J100" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
       <c r="A101" s="1" t="n">
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C101" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D101" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E101" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
-        <v>26</v>
-      </c>
-      <c r="G101" t="s">
-        <v>115</v>
-      </c>
-      <c r="H101" t="s"/>
-      <c r="I101" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="102" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>119</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
       <c r="A102" s="1" t="n">
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C102" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D102" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E102" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G102" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H102" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I102" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="103" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J102" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
       <c r="A103" s="1" t="n">
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C103" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D103" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E103" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>26</v>
-      </c>
-      <c r="G103" t="s">
-        <v>115</v>
-      </c>
-      <c r="H103" t="s"/>
-      <c r="I103" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="104" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>119</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
       <c r="A104" s="1" t="n">
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C104" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D104" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E104" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G104" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H104" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I104" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="105" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J104" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
       <c r="A105" s="1" t="n">
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C105" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D105" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E105" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
-        <v>26</v>
-      </c>
-      <c r="G105" t="s">
-        <v>115</v>
-      </c>
-      <c r="H105" t="s"/>
-      <c r="I105" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="106" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>119</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
       <c r="A106" s="1" t="n">
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C106" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D106" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E106" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F106" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G106" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="H106" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="I106" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="107" spans="1:9">
+        <v>96</v>
+      </c>
+      <c r="J106" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
       <c r="A107" s="1" t="n">
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C107" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D107" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E107" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F107" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G107" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H107" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I107" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="108" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J107" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
       <c r="A108" s="1" t="n">
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C108" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D108" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E108" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F108" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G108" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H108" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I108" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="109" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J108" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
       <c r="A109" s="1" t="n">
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C109" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D109" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E109" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F109" t="s">
-        <v>26</v>
-      </c>
-      <c r="G109" t="s">
-        <v>27</v>
-      </c>
-      <c r="H109" t="s"/>
-      <c r="I109" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="110" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G109" t="s"/>
+      <c r="H109" t="s">
+        <v>30</v>
+      </c>
+      <c r="I109" t="s"/>
+      <c r="J109" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
       <c r="A110" s="1" t="n">
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C110" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D110" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E110" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F110" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G110" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H110" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I110" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="111" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J110" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
       <c r="A111" s="1" t="n">
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D111" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E111" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F111" t="s">
-        <v>26</v>
-      </c>
-      <c r="G111" t="s">
-        <v>27</v>
-      </c>
-      <c r="H111" t="s"/>
-      <c r="I111" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="112" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>30</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
       <c r="A112" s="1" t="n">
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C112" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D112" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E112" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F112" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G112" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H112" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I112" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="113" spans="1:9">
+      <c r="J112" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
       <c r="A113" s="1" t="n">
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C113" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D113" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E113" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F113" t="s">
-        <v>26</v>
-      </c>
-      <c r="G113" t="s">
-        <v>27</v>
-      </c>
-      <c r="H113" t="s"/>
-      <c r="I113" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="114" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>30</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
       <c r="A114" s="1" t="n">
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C114" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D114" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E114" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G114" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H114" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I114" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="115" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J114" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
       <c r="A115" s="1" t="n">
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C115" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D115" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E115" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>26</v>
-      </c>
-      <c r="G115" t="s">
-        <v>27</v>
-      </c>
-      <c r="H115" t="s"/>
-      <c r="I115" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="116" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>30</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
       <c r="A116" s="1" t="n">
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C116" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D116" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E116" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G116" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H116" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I116" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="117" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J116" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
       <c r="A117" s="1" t="n">
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C117" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D117" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E117" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>26</v>
-      </c>
-      <c r="G117" t="s">
-        <v>27</v>
-      </c>
-      <c r="H117" t="s"/>
-      <c r="I117" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="118" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G117" t="s"/>
+      <c r="H117" t="s">
+        <v>30</v>
+      </c>
+      <c r="I117" t="s"/>
+      <c r="J117" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
       <c r="A118" s="1" t="n">
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C118" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D118" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E118" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G118" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H118" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I118" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="119" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J118" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
       <c r="A119" s="1" t="n">
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C119" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D119" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E119" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F119" t="s">
-        <v>26</v>
-      </c>
-      <c r="G119" t="s">
-        <v>27</v>
-      </c>
-      <c r="H119" t="s"/>
-      <c r="I119" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="120" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>30</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
       <c r="A120" s="1" t="n">
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C120" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D120" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E120" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F120" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G120" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H120" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I120" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="121" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J120" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
       <c r="A121" s="1" t="n">
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C121" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D121" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E121" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F121" t="s">
-        <v>26</v>
-      </c>
-      <c r="G121" t="s">
-        <v>27</v>
-      </c>
-      <c r="H121" t="s"/>
-      <c r="I121" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="122" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G121" t="s"/>
+      <c r="H121" t="s">
+        <v>30</v>
+      </c>
+      <c r="I121" t="s"/>
+      <c r="J121" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
       <c r="A122" s="1" t="n">
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C122" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D122" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E122" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F122" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G122" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H122" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I122" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="123" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J122" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
       <c r="A123" s="1" t="n">
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C123" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D123" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E123" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F123" t="s">
-        <v>26</v>
-      </c>
-      <c r="G123" t="s">
-        <v>27</v>
-      </c>
-      <c r="H123" t="s"/>
-      <c r="I123" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="124" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G123" t="s"/>
+      <c r="H123" t="s">
+        <v>30</v>
+      </c>
+      <c r="I123" t="s"/>
+      <c r="J123" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
       <c r="A124" s="1" t="n">
         <v>122</v>
       </c>
       <c r="B124" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C124" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D124" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E124" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F124" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G124" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H124" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I124" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="125" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J124" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
       <c r="A125" s="1" t="n">
         <v>123</v>
       </c>
       <c r="B125" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C125" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D125" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E125" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F125" t="s">
-        <v>26</v>
-      </c>
-      <c r="G125" t="s">
-        <v>30</v>
-      </c>
-      <c r="H125" t="s"/>
-      <c r="I125" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="126" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>33</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
       <c r="A126" s="1" t="n">
         <v>124</v>
       </c>
       <c r="B126" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C126" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D126" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E126" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F126" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G126" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H126" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I126" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="127" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J126" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
       <c r="A127" s="1" t="n">
         <v>125</v>
       </c>
       <c r="B127" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C127" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D127" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E127" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F127" t="s">
-        <v>26</v>
-      </c>
-      <c r="G127" t="s">
-        <v>30</v>
-      </c>
-      <c r="H127" t="s"/>
-      <c r="I127" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="128" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>33</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
       <c r="A128" s="1" t="n">
         <v>126</v>
       </c>
       <c r="B128" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C128" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D128" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E128" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F128" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G128" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H128" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I128" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="129" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J128" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
       <c r="A129" s="1" t="n">
         <v>127</v>
       </c>
       <c r="B129" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C129" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D129" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E129" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F129" t="s">
-        <v>26</v>
-      </c>
-      <c r="G129" t="s">
-        <v>30</v>
-      </c>
-      <c r="H129" t="s"/>
-      <c r="I129" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="130" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>33</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
       <c r="A130" s="1" t="n">
         <v>128</v>
       </c>
       <c r="B130" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C130" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D130" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E130" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F130" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G130" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H130" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I130" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="131" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J130" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
       <c r="A131" s="1" t="n">
         <v>129</v>
       </c>
       <c r="B131" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C131" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D131" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E131" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F131" t="s">
-        <v>26</v>
-      </c>
-      <c r="G131" t="s">
-        <v>33</v>
-      </c>
-      <c r="H131" t="s"/>
-      <c r="I131" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="132" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G131" t="s"/>
+      <c r="H131" t="s">
+        <v>36</v>
+      </c>
+      <c r="I131" t="s"/>
+      <c r="J131" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
       <c r="A132" s="1" t="n">
         <v>130</v>
       </c>
       <c r="B132" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C132" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D132" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E132" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F132" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G132" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H132" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I132" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="133" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J132" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
       <c r="A133" s="1" t="n">
         <v>131</v>
       </c>
       <c r="B133" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C133" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D133" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E133" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F133" t="s">
-        <v>26</v>
-      </c>
-      <c r="G133" t="s">
-        <v>33</v>
-      </c>
-      <c r="H133" t="s"/>
-      <c r="I133" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="134" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>36</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
       <c r="A134" s="1" t="n">
         <v>132</v>
       </c>
       <c r="B134" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C134" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D134" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E134" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F134" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G134" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H134" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I134" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="135" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J134" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
       <c r="A135" s="1" t="n">
         <v>133</v>
       </c>
       <c r="B135" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C135" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D135" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E135" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F135" t="s">
-        <v>26</v>
-      </c>
-      <c r="G135" t="s">
-        <v>30</v>
-      </c>
-      <c r="H135" t="s"/>
-      <c r="I135" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="136" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>33</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
       <c r="A136" s="1" t="n">
         <v>134</v>
       </c>
       <c r="B136" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C136" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D136" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E136" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F136" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G136" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="H136" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="I136" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="137" spans="1:9">
+        <v>138</v>
+      </c>
+      <c r="J136" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
       <c r="A137" s="1" t="n">
         <v>135</v>
       </c>
       <c r="B137" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C137" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D137" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E137" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F137" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G137" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H137" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I137" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="138" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J137" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
       <c r="A138" s="1" t="n">
         <v>136</v>
       </c>
       <c r="B138" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C138" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D138" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E138" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F138" t="s">
-        <v>26</v>
-      </c>
-      <c r="G138" t="s">
-        <v>33</v>
-      </c>
-      <c r="H138" t="s"/>
-      <c r="I138" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="139" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>36</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
       <c r="A139" s="1" t="n">
         <v>137</v>
       </c>
       <c r="B139" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C139" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D139" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E139" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F139" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G139" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H139" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I139" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="140" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J139" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
       <c r="A140" s="1" t="n">
         <v>138</v>
       </c>
       <c r="B140" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C140" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D140" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E140" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F140" t="s">
-        <v>26</v>
-      </c>
-      <c r="G140" t="s">
-        <v>33</v>
-      </c>
-      <c r="H140" t="s"/>
-      <c r="I140" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="141" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>36</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
       <c r="A141" s="1" t="n">
         <v>139</v>
       </c>
       <c r="B141" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C141" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D141" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E141" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F141" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G141" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H141" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I141" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="142" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J141" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
       <c r="A142" s="1" t="n">
         <v>140</v>
       </c>
       <c r="B142" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C142" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D142" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E142" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F142" t="s">
-        <v>26</v>
-      </c>
-      <c r="G142" t="s">
-        <v>33</v>
-      </c>
-      <c r="H142" t="s"/>
-      <c r="I142" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="143" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>36</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
       <c r="A143" s="1" t="n">
         <v>141</v>
       </c>
       <c r="B143" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C143" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D143" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E143" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F143" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G143" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H143" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I143" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="144" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J143" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
       <c r="A144" s="1" t="n">
         <v>142</v>
       </c>
       <c r="B144" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C144" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D144" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E144" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F144" t="s">
-        <v>26</v>
-      </c>
-      <c r="G144" t="s">
-        <v>33</v>
-      </c>
-      <c r="H144" t="s"/>
-      <c r="I144" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="145" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G144" t="s"/>
+      <c r="H144" t="s">
+        <v>36</v>
+      </c>
+      <c r="I144" t="s"/>
+      <c r="J144" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
       <c r="A145" s="1" t="n">
         <v>143</v>
       </c>
       <c r="B145" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C145" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D145" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E145" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F145" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G145" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H145" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I145" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="146" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J145" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
       <c r="A146" s="1" t="n">
         <v>144</v>
       </c>
       <c r="B146" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C146" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D146" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E146" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F146" t="s">
-        <v>26</v>
-      </c>
-      <c r="G146" t="s">
-        <v>30</v>
-      </c>
-      <c r="H146" t="s"/>
-      <c r="I146" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="147" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>33</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
       <c r="A147" s="1" t="n">
         <v>145</v>
       </c>
       <c r="B147" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C147" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D147" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E147" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F147" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G147" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H147" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I147" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="148" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
       <c r="A148" s="1" t="n">
         <v>146</v>
       </c>
       <c r="B148" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C148" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D148" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E148" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F148" t="s">
-        <v>26</v>
-      </c>
-      <c r="G148" t="s">
-        <v>36</v>
-      </c>
-      <c r="H148" t="s"/>
-      <c r="I148" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="149" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>39</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
       <c r="A149" s="1" t="n">
         <v>147</v>
       </c>
       <c r="B149" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C149" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D149" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E149" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F149" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G149" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H149" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I149" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="150" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J149" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
       <c r="A150" s="1" t="n">
         <v>148</v>
       </c>
       <c r="B150" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C150" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D150" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E150" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F150" t="s">
-        <v>26</v>
-      </c>
-      <c r="G150" t="s">
-        <v>33</v>
-      </c>
-      <c r="H150" t="s"/>
-      <c r="I150" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="151" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>36</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
       <c r="A151" s="1" t="n">
         <v>149</v>
       </c>
       <c r="B151" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C151" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D151" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E151" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F151" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G151" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H151" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I151" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="152" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J151" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
       <c r="A152" s="1" t="n">
         <v>150</v>
       </c>
       <c r="B152" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C152" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D152" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E152" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F152" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G152" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H152" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I152" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="153" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J152" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
       <c r="A153" s="1" t="n">
         <v>151</v>
       </c>
       <c r="B153" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C153" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D153" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E153" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F153" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G153" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H153" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I153" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="154" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J153" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
       <c r="A154" s="1" t="n">
         <v>152</v>
       </c>
       <c r="B154" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C154" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D154" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E154" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F154" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G154" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H154" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I154" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="155" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J154" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
       <c r="A155" s="1" t="n">
         <v>153</v>
       </c>
       <c r="B155" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C155" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D155" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E155" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F155" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G155" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H155" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I155" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="156" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J155" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
       <c r="A156" s="1" t="n">
         <v>154</v>
       </c>
       <c r="B156" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C156" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D156" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E156" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F156" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G156" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H156" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I156" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="157" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J156" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
       <c r="A157" s="1" t="n">
         <v>155</v>
       </c>
       <c r="B157" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C157" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D157" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E157" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F157" t="s">
-        <v>26</v>
-      </c>
-      <c r="G157" t="s">
-        <v>27</v>
-      </c>
-      <c r="H157" t="s"/>
-      <c r="I157" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="158" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>30</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
       <c r="A158" s="1" t="n">
         <v>156</v>
       </c>
       <c r="B158" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C158" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D158" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E158" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F158" t="s">
-        <v>26</v>
-      </c>
-      <c r="G158" t="s">
-        <v>27</v>
-      </c>
-      <c r="H158" t="s"/>
-      <c r="I158" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="159" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>30</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
       <c r="A159" s="1" t="n">
         <v>157</v>
       </c>
       <c r="B159" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C159" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D159" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E159" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F159" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="G159" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="H159" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="I159" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="160" spans="1:9">
+        <v>22</v>
+      </c>
+      <c r="J159" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="160" spans="1:10">
       <c r="A160" s="1" t="n">
         <v>158</v>
       </c>
       <c r="B160" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C160" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D160" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E160" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F160" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G160" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H160" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I160" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="161" spans="1:9">
+        <v>16</v>
+      </c>
+      <c r="J160" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="161" spans="1:10">
       <c r="A161" s="1" t="n">
         <v>159</v>
       </c>
       <c r="B161" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C161" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D161" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E161" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F161" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G161" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H161" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I161" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="162" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J161" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="162" spans="1:10">
       <c r="A162" s="1" t="n">
         <v>160</v>
       </c>
       <c r="B162" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C162" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D162" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E162" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F162" t="s">
-        <v>26</v>
-      </c>
-      <c r="G162" t="s">
-        <v>33</v>
-      </c>
-      <c r="H162" t="s"/>
-      <c r="I162" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="163" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G162" t="s"/>
+      <c r="H162" t="s">
+        <v>36</v>
+      </c>
+      <c r="I162" t="s"/>
+      <c r="J162" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="163" spans="1:10">
       <c r="A163" s="1" t="n">
         <v>161</v>
       </c>
       <c r="B163" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C163" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D163" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E163" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F163" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G163" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H163" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I163" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="164" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J163" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="164" spans="1:10">
       <c r="A164" s="1" t="n">
         <v>162</v>
       </c>
       <c r="B164" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C164" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D164" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E164" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F164" t="s">
-        <v>26</v>
-      </c>
-      <c r="G164" t="s">
-        <v>27</v>
-      </c>
-      <c r="H164" t="s"/>
-      <c r="I164" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="165" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G164" t="s"/>
+      <c r="H164" t="s">
+        <v>30</v>
+      </c>
+      <c r="I164" t="s"/>
+      <c r="J164" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="165" spans="1:10">
       <c r="A165" s="1" t="n">
         <v>163</v>
       </c>
       <c r="B165" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C165" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D165" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E165" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F165" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G165" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H165" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I165" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row r="166" spans="1:9">
+      <c r="J165" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="166" spans="1:10">
       <c r="A166" s="1" t="n">
         <v>164</v>
       </c>
       <c r="B166" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C166" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D166" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E166" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F166" t="s">
-        <v>26</v>
-      </c>
-      <c r="G166" t="s">
-        <v>27</v>
-      </c>
-      <c r="H166" t="s"/>
-      <c r="I166" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="167" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G166" t="s"/>
+      <c r="H166" t="s">
+        <v>30</v>
+      </c>
+      <c r="I166" t="s"/>
+      <c r="J166" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="167" spans="1:10">
       <c r="A167" s="1" t="n">
         <v>165</v>
       </c>
       <c r="B167" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C167" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D167" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E167" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F167" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G167" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H167" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I167" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="168" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J167" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="168" spans="1:10">
       <c r="A168" s="1" t="n">
         <v>166</v>
       </c>
       <c r="B168" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C168" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D168" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E168" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F168" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G168" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H168" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I168" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="169" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J168" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="169" spans="1:10">
       <c r="A169" s="1" t="n">
         <v>167</v>
       </c>
       <c r="B169" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C169" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D169" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E169" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F169" t="s">
-        <v>26</v>
-      </c>
-      <c r="G169" t="s">
-        <v>27</v>
-      </c>
-      <c r="H169" t="s"/>
-      <c r="I169" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="170" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G169" t="s"/>
+      <c r="H169" t="s">
+        <v>30</v>
+      </c>
+      <c r="I169" t="s"/>
+      <c r="J169" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="170" spans="1:10">
       <c r="A170" s="1" t="n">
         <v>168</v>
       </c>
       <c r="B170" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C170" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D170" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E170" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F170" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G170" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H170" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I170" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="171" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J170" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="171" spans="1:10">
       <c r="A171" s="1" t="n">
         <v>169</v>
       </c>
       <c r="B171" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C171" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D171" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E171" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F171" t="s">
-        <v>26</v>
-      </c>
-      <c r="G171" t="s">
-        <v>27</v>
-      </c>
-      <c r="H171" t="s"/>
-      <c r="I171" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="172" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G171" t="s"/>
+      <c r="H171" t="s">
+        <v>30</v>
+      </c>
+      <c r="I171" t="s"/>
+      <c r="J171" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="172" spans="1:10">
       <c r="A172" s="1" t="n">
         <v>170</v>
       </c>
       <c r="B172" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C172" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D172" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E172" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F172" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G172" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H172" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I172" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="173" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J172" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="173" spans="1:10">
       <c r="A173" s="1" t="n">
         <v>171</v>
       </c>
       <c r="B173" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C173" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D173" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E173" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F173" t="s">
-        <v>26</v>
-      </c>
-      <c r="G173" t="s">
-        <v>27</v>
-      </c>
-      <c r="H173" t="s"/>
-      <c r="I173" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="174" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G173" t="s"/>
+      <c r="H173" t="s">
+        <v>30</v>
+      </c>
+      <c r="I173" t="s"/>
+      <c r="J173" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="174" spans="1:10">
       <c r="A174" s="1" t="n">
         <v>172</v>
       </c>
       <c r="B174" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C174" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D174" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E174" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F174" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G174" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H174" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I174" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="175" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J174" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="175" spans="1:10">
       <c r="A175" s="1" t="n">
         <v>173</v>
       </c>
       <c r="B175" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C175" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D175" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E175" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F175" t="s">
-        <v>26</v>
-      </c>
-      <c r="G175" t="s">
-        <v>27</v>
-      </c>
-      <c r="H175" t="s"/>
-      <c r="I175" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="176" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G175" t="s"/>
+      <c r="H175" t="s">
+        <v>30</v>
+      </c>
+      <c r="I175" t="s"/>
+      <c r="J175" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="176" spans="1:10">
       <c r="A176" s="1" t="n">
         <v>174</v>
       </c>
       <c r="B176" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C176" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D176" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E176" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F176" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G176" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H176" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I176" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="177" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J176" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="177" spans="1:10">
       <c r="A177" s="1" t="n">
         <v>175</v>
       </c>
       <c r="B177" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C177" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D177" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E177" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F177" t="s">
-        <v>26</v>
-      </c>
-      <c r="G177" t="s">
-        <v>27</v>
-      </c>
-      <c r="H177" t="s"/>
-      <c r="I177" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="178" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G177" t="s"/>
+      <c r="H177" t="s">
+        <v>30</v>
+      </c>
+      <c r="I177" t="s"/>
+      <c r="J177" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="178" spans="1:10">
       <c r="A178" s="1" t="n">
         <v>176</v>
       </c>
       <c r="B178" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C178" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D178" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E178" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F178" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G178" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H178" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I178" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="179" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J178" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="179" spans="1:10">
       <c r="A179" s="1" t="n">
         <v>177</v>
       </c>
       <c r="B179" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C179" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D179" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E179" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F179" t="s">
-        <v>26</v>
-      </c>
-      <c r="G179" t="s">
-        <v>27</v>
-      </c>
-      <c r="H179" t="s"/>
-      <c r="I179" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="180" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G179" t="s"/>
+      <c r="H179" t="s">
+        <v>30</v>
+      </c>
+      <c r="I179" t="s"/>
+      <c r="J179" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="180" spans="1:10">
       <c r="A180" s="1" t="n">
         <v>178</v>
       </c>
       <c r="B180" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C180" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D180" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E180" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F180" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G180" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H180" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I180" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="181" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J180" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="181" spans="1:10">
       <c r="A181" s="1" t="n">
         <v>179</v>
       </c>
       <c r="B181" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C181" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D181" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E181" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F181" t="s">
-        <v>26</v>
-      </c>
-      <c r="G181" t="s">
-        <v>27</v>
-      </c>
-      <c r="H181" t="s"/>
-      <c r="I181" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="182" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G181" t="s"/>
+      <c r="H181" t="s">
+        <v>30</v>
+      </c>
+      <c r="I181" t="s"/>
+      <c r="J181" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="182" spans="1:10">
       <c r="A182" s="1" t="n">
         <v>180</v>
       </c>
       <c r="B182" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C182" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D182" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E182" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F182" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G182" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H182" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I182" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="183" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J182" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="183" spans="1:10">
       <c r="A183" s="1" t="n">
         <v>181</v>
       </c>
       <c r="B183" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C183" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D183" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E183" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F183" t="s">
-        <v>26</v>
-      </c>
-      <c r="G183" t="s">
-        <v>27</v>
-      </c>
-      <c r="H183" t="s"/>
-      <c r="I183" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="184" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G183" t="s"/>
+      <c r="H183" t="s">
+        <v>30</v>
+      </c>
+      <c r="I183" t="s"/>
+      <c r="J183" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="184" spans="1:10">
       <c r="A184" s="1" t="n">
         <v>182</v>
       </c>
       <c r="B184" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C184" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D184" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E184" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F184" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G184" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H184" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I184" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J184" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="185" spans="1:10">
       <c r="A185" s="1" t="n">
         <v>183</v>
       </c>
       <c r="B185" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C185" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D185" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E185" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F185" t="s">
-        <v>26</v>
-      </c>
-      <c r="G185" t="s">
-        <v>27</v>
-      </c>
-      <c r="H185" t="s"/>
-      <c r="I185" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="186" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G185" t="s"/>
+      <c r="H185" t="s">
+        <v>30</v>
+      </c>
+      <c r="I185" t="s"/>
+      <c r="J185" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="186" spans="1:10">
       <c r="A186" s="1" t="n">
         <v>184</v>
       </c>
       <c r="B186" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C186" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D186" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E186" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F186" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G186" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H186" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I186" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J186" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="187" spans="1:10">
       <c r="A187" s="1" t="n">
         <v>185</v>
       </c>
       <c r="B187" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C187" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D187" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E187" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F187" t="s">
-        <v>26</v>
-      </c>
-      <c r="G187" t="s">
-        <v>27</v>
-      </c>
-      <c r="H187" t="s"/>
-      <c r="I187" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="188" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G187" t="s"/>
+      <c r="H187" t="s">
+        <v>30</v>
+      </c>
+      <c r="I187" t="s"/>
+      <c r="J187" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="188" spans="1:10">
       <c r="A188" s="1" t="n">
         <v>186</v>
       </c>
       <c r="B188" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C188" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D188" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E188" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F188" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G188" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H188" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I188" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="189" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J188" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="189" spans="1:10">
       <c r="A189" s="1" t="n">
         <v>187</v>
       </c>
       <c r="B189" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C189" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D189" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E189" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F189" t="s">
-        <v>26</v>
-      </c>
-      <c r="G189" t="s">
-        <v>27</v>
-      </c>
-      <c r="H189" t="s"/>
-      <c r="I189" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="190" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G189" t="s"/>
+      <c r="H189" t="s">
+        <v>30</v>
+      </c>
+      <c r="I189" t="s"/>
+      <c r="J189" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="190" spans="1:10">
       <c r="A190" s="1" t="n">
         <v>188</v>
       </c>
       <c r="B190" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C190" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D190" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E190" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F190" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G190" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H190" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I190" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="191" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J190" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="191" spans="1:10">
       <c r="A191" s="1" t="n">
         <v>189</v>
       </c>
       <c r="B191" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C191" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D191" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E191" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F191" t="s">
-        <v>26</v>
-      </c>
-      <c r="G191" t="s">
-        <v>27</v>
-      </c>
-      <c r="H191" t="s"/>
-      <c r="I191" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="192" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G191" t="s"/>
+      <c r="H191" t="s">
+        <v>30</v>
+      </c>
+      <c r="I191" t="s"/>
+      <c r="J191" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="192" spans="1:10">
       <c r="A192" s="1" t="n">
         <v>190</v>
       </c>
       <c r="B192" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C192" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D192" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E192" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F192" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G192" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H192" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I192" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="193" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J192" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="193" spans="1:10">
       <c r="A193" s="1" t="n">
         <v>191</v>
       </c>
       <c r="B193" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C193" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D193" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E193" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F193" t="s">
-        <v>26</v>
-      </c>
-      <c r="G193" t="s">
-        <v>27</v>
-      </c>
-      <c r="H193" t="s"/>
-      <c r="I193" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="194" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G193" t="s"/>
+      <c r="H193" t="s">
+        <v>30</v>
+      </c>
+      <c r="I193" t="s"/>
+      <c r="J193" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="194" spans="1:10">
       <c r="A194" s="1" t="n">
         <v>192</v>
       </c>
       <c r="B194" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C194" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D194" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E194" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F194" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G194" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H194" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I194" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="195" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J194" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="195" spans="1:10">
       <c r="A195" s="1" t="n">
         <v>193</v>
       </c>
       <c r="B195" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C195" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D195" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E195" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F195" t="s">
-        <v>26</v>
-      </c>
-      <c r="G195" t="s">
-        <v>33</v>
-      </c>
-      <c r="H195" t="s"/>
-      <c r="I195" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="196" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G195" t="s"/>
+      <c r="H195" t="s">
+        <v>36</v>
+      </c>
+      <c r="I195" t="s"/>
+      <c r="J195" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="196" spans="1:10">
       <c r="A196" s="1" t="n">
         <v>194</v>
       </c>
       <c r="B196" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C196" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D196" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E196" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F196" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G196" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H196" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I196" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="197" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J196" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="197" spans="1:10">
       <c r="A197" s="1" t="n">
         <v>195</v>
       </c>
       <c r="B197" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C197" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D197" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E197" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F197" t="s">
-        <v>26</v>
-      </c>
-      <c r="G197" t="s">
-        <v>30</v>
-      </c>
-      <c r="H197" t="s"/>
-      <c r="I197" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="198" spans="1:9">
+        <v>29</v>
+      </c>
+      <c r="G197" t="s"/>
+      <c r="H197" t="s">
+        <v>33</v>
+      </c>
+      <c r="I197" t="s"/>
+      <c r="J197" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="198" spans="1:10">
       <c r="A198" s="1" t="n">
         <v>196</v>
       </c>
       <c r="B198" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C198" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D198" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E198" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F198" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="G198" t="s">
-        <v>187</v>
+        <v>136</v>
       </c>
       <c r="H198" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="I198" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="199" spans="1:9">
+        <v>193</v>
+      </c>
+      <c r="J198" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="199" spans="1:10">
       <c r="A199" s="1" t="n">
         <v>197</v>
       </c>
       <c r="B199" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C199" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D199" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E199" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="F199" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G199" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H199" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I199" t="s">
-        <v>226</v>
+        <v>16</v>
+      </c>
+      <c r="J199" t="s">
+        <v>231</v>
       </c>
     </row>
   </sheetData>
